--- a/test_data2/true_cols.xlsx
+++ b/test_data2/true_cols.xlsx
@@ -379,13 +379,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -396,10 +396,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -413,10 +413,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -430,10 +430,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -450,13 +450,13 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -467,7 +467,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -515,10 +515,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -538,13 +538,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -600,7 +600,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -651,10 +651,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -702,10 +702,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -722,13 +722,13 @@
         <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -742,10 +742,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -770,13 +770,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -790,10 +790,10 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -804,13 +804,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -906,10 +906,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -923,10 +923,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -960,13 +960,13 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -986,18 +986,18 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -1028,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1054,12 +1054,12 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -1071,12 +1071,12 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -1093,10 +1093,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1133,18 +1133,18 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -1218,10 +1218,10 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1255,18 +1255,18 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1283,13 +1283,13 @@
         <v>0</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1320,21 +1320,21 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
@@ -1368,13 +1368,13 @@
         <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1402,13 +1402,13 @@
         <v>0</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -1419,13 +1419,13 @@
         <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
@@ -1507,13 +1507,13 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -1609,18 +1609,18 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
@@ -1632,12 +1632,12 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -1671,10 +1671,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -1711,10 +1711,10 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
@@ -1734,15 +1734,15 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -1762,21 +1762,21 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -1793,10 +1793,10 @@
         <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
@@ -1836,18 +1836,18 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
@@ -1878,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -1887,18 +1887,18 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
@@ -1938,15 +1938,15 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -1960,10 +1960,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
@@ -1994,10 +1994,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2048,13 +2048,13 @@
         <v>0</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -2150,10 +2150,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2161,13 +2161,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -2218,10 +2218,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -2229,13 +2229,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -2266,13 +2266,13 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -2297,7 +2297,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -2331,13 +2331,13 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -2348,13 +2348,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -2374,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -2391,10 +2391,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -2416,10 +2416,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2436,13 +2436,13 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2450,13 +2450,13 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2467,10 +2467,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -2510,15 +2510,15 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -2589,10 +2589,10 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -2649,18 +2649,18 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -2691,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -2708,10 +2708,10 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -2734,12 +2734,12 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -2748,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -2768,15 +2768,15 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -2799,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2827,10 +2827,10 @@
         <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -2861,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -2870,12 +2870,12 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -2884,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -2909,13 +2909,13 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -3008,10 +3008,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -3025,10 +3025,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -3042,13 +3042,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -3065,13 +3065,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -3139,12 +3139,12 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -3170,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -3212,13 +3212,13 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -3292,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -3314,13 +3314,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -3348,10 +3348,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -3377,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -3402,13 +3402,13 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -3419,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -3428,18 +3428,18 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -3467,10 +3467,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -3493,18 +3493,18 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -3530,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -3538,10 +3538,10 @@
         <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3572,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -3592,10 +3592,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3603,10 +3603,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3623,10 +3623,10 @@
         <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3657,13 +3657,13 @@
         <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3671,10 +3671,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3691,10 +3691,10 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3705,10 +3705,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -3824,10 +3824,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -3841,10 +3841,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -3875,10 +3875,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -3892,10 +3892,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -4057,18 +4057,18 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -4088,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -4116,10 +4116,10 @@
         <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -4142,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -4150,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -4170,10 +4170,10 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -4181,7 +4181,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
@@ -4193,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -4210,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -4221,13 +4221,13 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -4235,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -4244,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -4266,10 +4266,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -4283,10 +4283,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -4334,10 +4334,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -4357,13 +4357,13 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -4385,7 +4385,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
@@ -4394,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
@@ -4411,10 +4411,10 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4422,10 +4422,10 @@
         <v>0</v>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -4445,10 +4445,10 @@
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -4470,10 +4470,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -4493,10 +4493,10 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
@@ -4530,15 +4530,15 @@
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
@@ -4547,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
@@ -4555,7 +4555,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -4567,18 +4567,18 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -4595,10 +4595,10 @@
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
@@ -4609,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -4618,12 +4618,12 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -4635,12 +4635,12 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -4666,18 +4666,18 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -4691,13 +4691,13 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -4708,13 +4708,13 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -4751,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
@@ -4765,13 +4765,13 @@
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -4782,10 +4782,10 @@
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
@@ -4799,18 +4799,18 @@
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -4819,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -4839,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -4904,10 +4904,10 @@
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -4915,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -4924,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -4932,10 +4932,10 @@
         <v>0</v>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
@@ -4949,13 +4949,13 @@
         <v>0</v>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
@@ -4980,7 +4980,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -5014,7 +5014,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -5023,7 +5023,7 @@
         <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
@@ -5031,13 +5031,13 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -5051,10 +5051,10 @@
         <v>0</v>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
@@ -5068,10 +5068,10 @@
         <v>0</v>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
@@ -5082,13 +5082,13 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -5099,7 +5099,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -5111,18 +5111,18 @@
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
@@ -5139,24 +5139,24 @@
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D129" t="n">
         <v>0</v>
@@ -5201,10 +5201,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -5227,10 +5227,10 @@
         <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -5252,10 +5252,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -5269,7 +5269,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -5281,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -5289,7 +5289,7 @@
         <v>0</v>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -5298,7 +5298,7 @@
         <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -5306,10 +5306,10 @@
         <v>0</v>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
@@ -5323,13 +5323,13 @@
         <v>0</v>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
@@ -5354,7 +5354,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B141" t="n">
         <v>0</v>
@@ -5366,18 +5366,18 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B142" t="n">
         <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
@@ -5394,21 +5394,21 @@
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D143" t="n">
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -5442,13 +5442,13 @@
         <v>0</v>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
@@ -5473,7 +5473,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B148" t="n">
         <v>0</v>
@@ -5482,7 +5482,7 @@
         <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
@@ -5490,7 +5490,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B149" t="n">
         <v>0</v>
@@ -5502,15 +5502,15 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -5527,13 +5527,13 @@
         <v>0</v>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
@@ -5541,7 +5541,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B152" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
@@ -5561,10 +5561,10 @@
         <v>0</v>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -5581,10 +5581,10 @@
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
@@ -5626,7 +5626,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B157" t="n">
         <v>0</v>
@@ -5638,7 +5638,7 @@
         <v>0</v>
       </c>
       <c r="E157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -5649,10 +5649,10 @@
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E158" t="n">
         <v>0</v>
@@ -5663,10 +5663,10 @@
         <v>0</v>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D159" t="n">
         <v>0</v>
@@ -5677,7 +5677,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B160" t="n">
         <v>0</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
@@ -5697,10 +5697,10 @@
         <v>0</v>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -5734,10 +5734,10 @@
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
@@ -5751,10 +5751,10 @@
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
@@ -5762,7 +5762,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B165" t="n">
         <v>0</v>
@@ -5771,7 +5771,7 @@
         <v>0</v>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
@@ -5782,7 +5782,7 @@
         <v>0</v>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -5833,7 +5833,7 @@
         <v>0</v>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -5842,12 +5842,12 @@
         <v>0</v>
       </c>
       <c r="E169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B170" t="n">
         <v>0</v>
@@ -5856,7 +5856,7 @@
         <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
@@ -5867,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -5876,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -5887,10 +5887,10 @@
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
@@ -5901,13 +5901,13 @@
         <v>0</v>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
@@ -5924,10 +5924,10 @@
         <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -5935,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="B175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5944,18 +5944,18 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B176" t="n">
         <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D176" t="n">
         <v>0</v>
@@ -5972,10 +5972,10 @@
         <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
@@ -5983,13 +5983,13 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B178" t="n">
         <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D178" t="n">
         <v>0</v>
@@ -6000,7 +6000,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B179" t="n">
         <v>0</v>
@@ -6009,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E179" t="n">
         <v>0</v>
@@ -6023,24 +6023,24 @@
         <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D180" t="n">
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B181" t="n">
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D181" t="n">
         <v>0</v>
@@ -6051,7 +6051,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B182" t="n">
         <v>0</v>
@@ -6060,7 +6060,7 @@
         <v>0</v>
       </c>
       <c r="D182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E182" t="n">
         <v>0</v>
@@ -6068,7 +6068,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B183" t="n">
         <v>0</v>
@@ -6080,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="E183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -6088,13 +6088,13 @@
         <v>0</v>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
@@ -6111,10 +6111,10 @@
         <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="B186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -6131,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -6153,7 +6153,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B188" t="n">
         <v>0</v>
@@ -6165,15 +6165,15 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -6224,7 +6224,7 @@
         <v>0</v>
       </c>
       <c r="B192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -6233,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -6241,7 +6241,7 @@
         <v>0</v>
       </c>
       <c r="B193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -6250,7 +6250,7 @@
         <v>0</v>
       </c>
       <c r="E193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -6258,10 +6258,10 @@
         <v>0</v>
       </c>
       <c r="B194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D194" t="n">
         <v>0</v>
@@ -6281,18 +6281,18 @@
         <v>0</v>
       </c>
       <c r="D195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -6306,7 +6306,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B197" t="n">
         <v>0</v>
@@ -6318,18 +6318,18 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B198" t="n">
         <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D198" t="n">
         <v>0</v>
@@ -6346,13 +6346,13 @@
         <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199" t="n">
         <v>0</v>
       </c>
       <c r="E199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -6360,13 +6360,13 @@
         <v>0</v>
       </c>
       <c r="B200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
       </c>
       <c r="D200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E200" t="n">
         <v>0</v>
@@ -6374,7 +6374,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B201" t="n">
         <v>0</v>
@@ -6386,12 +6386,12 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B202" t="n">
         <v>0</v>
@@ -6400,7 +6400,7 @@
         <v>0</v>
       </c>
       <c r="D202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E202" t="n">
         <v>0</v>
@@ -6417,15 +6417,15 @@
         <v>0</v>
       </c>
       <c r="D203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B204" t="n">
         <v>0</v>
@@ -6437,12 +6437,12 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B205" t="n">
         <v>0</v>
@@ -6454,12 +6454,12 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B206" t="n">
         <v>0</v>
@@ -6471,7 +6471,7 @@
         <v>0</v>
       </c>
       <c r="E206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -6493,7 +6493,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B208" t="n">
         <v>0</v>
@@ -6505,7 +6505,7 @@
         <v>0</v>
       </c>
       <c r="E208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -6519,10 +6519,10 @@
         <v>0</v>
       </c>
       <c r="D209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -6530,7 +6530,7 @@
         <v>0</v>
       </c>
       <c r="B210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -6539,7 +6539,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -6561,13 +6561,13 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B212" t="n">
         <v>0</v>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D212" t="n">
         <v>0</v>
@@ -6578,10 +6578,10 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -6595,7 +6595,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B214" t="n">
         <v>0</v>
@@ -6607,7 +6607,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -6629,7 +6629,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B216" t="n">
         <v>0</v>
@@ -6641,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -6652,10 +6652,10 @@
         <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E217" t="n">
         <v>0</v>
@@ -6666,7 +6666,7 @@
         <v>0</v>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6675,7 +6675,7 @@
         <v>0</v>
       </c>
       <c r="E218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -6697,10 +6697,10 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6731,7 +6731,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B222" t="n">
         <v>0</v>
@@ -6743,15 +6743,15 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6768,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6777,7 +6777,7 @@
         <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -6785,13 +6785,13 @@
         <v>0</v>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
       </c>
       <c r="D225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E225" t="n">
         <v>0</v>
@@ -6819,10 +6819,10 @@
         <v>0</v>
       </c>
       <c r="B227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D227" t="n">
         <v>0</v>
@@ -6833,10 +6833,10 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B229" t="n">
         <v>0</v>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="D229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E229" t="n">
         <v>0</v>
@@ -6867,10 +6867,10 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6884,10 +6884,10 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6904,13 +6904,13 @@
         <v>0</v>
       </c>
       <c r="B232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
       </c>
       <c r="D232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E232" t="n">
         <v>0</v>
@@ -6918,10 +6918,10 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6935,13 +6935,13 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B234" t="n">
         <v>0</v>
       </c>
       <c r="C234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D234" t="n">
         <v>0</v>
@@ -6955,10 +6955,10 @@
         <v>0</v>
       </c>
       <c r="B235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D235" t="n">
         <v>0</v>
@@ -6986,7 +6986,7 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B237" t="n">
         <v>0</v>
@@ -6995,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="D237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E237" t="n">
         <v>0</v>
@@ -7003,13 +7003,13 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B238" t="n">
         <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D238" t="n">
         <v>0</v>
@@ -7020,7 +7020,7 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B239" t="n">
         <v>0</v>
@@ -7029,7 +7029,7 @@
         <v>0</v>
       </c>
       <c r="D239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E239" t="n">
         <v>0</v>
@@ -7037,10 +7037,10 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -7057,13 +7057,13 @@
         <v>0</v>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
       </c>
       <c r="D241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E241" t="n">
         <v>0</v>
@@ -7077,10 +7077,10 @@
         <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E242" t="n">
         <v>0</v>
@@ -7088,13 +7088,13 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B243" t="n">
         <v>0</v>
       </c>
       <c r="C243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D243" t="n">
         <v>0</v>
@@ -7142,13 +7142,13 @@
         <v>0</v>
       </c>
       <c r="B246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
       </c>
       <c r="D246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E246" t="n">
         <v>0</v>
@@ -7162,10 +7162,10 @@
         <v>0</v>
       </c>
       <c r="C247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E247" t="n">
         <v>0</v>
@@ -7173,10 +7173,10 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -7207,10 +7207,10 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>

--- a/test_data2/true_cols.xlsx
+++ b/test_data2/true_cols.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">V1</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t xml:space="preserve">V5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V6</t>
   </si>
 </sst>
 </file>
@@ -376,6 +379,9 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -385,21 +391,24 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -408,6 +417,9 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -416,21 +428,24 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -443,6 +458,9 @@
       </c>
       <c r="E5" t="n">
         <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -450,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -459,15 +477,18 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -476,32 +497,38 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -510,23 +537,29 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -541,10 +574,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -561,7 +597,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -580,13 +619,16 @@
       <c r="E13" t="n">
         <v>0</v>
       </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -595,6 +637,9 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -603,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -612,7 +657,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -623,12 +671,15 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -648,6 +699,9 @@
       <c r="E17" t="n">
         <v>0</v>
       </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -665,6 +719,9 @@
       <c r="E18" t="n">
         <v>0</v>
       </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -682,6 +739,9 @@
       <c r="E19" t="n">
         <v>0</v>
       </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -699,21 +759,27 @@
       <c r="E20" t="n">
         <v>0</v>
       </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -722,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -732,6 +798,9 @@
       </c>
       <c r="E22" t="n">
         <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -750,30 +819,36 @@
       <c r="E23" t="n">
         <v>0</v>
       </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -782,6 +857,9 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -790,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -800,22 +878,28 @@
       </c>
       <c r="E26" t="n">
         <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -835,13 +919,16 @@
       <c r="E28" t="n">
         <v>0</v>
       </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -850,6 +937,9 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -861,13 +951,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -886,6 +979,9 @@
       <c r="E31" t="n">
         <v>0</v>
       </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -895,12 +991,15 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -909,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -919,6 +1018,9 @@
       </c>
       <c r="E33" t="n">
         <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -926,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -935,12 +1037,15 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -952,15 +1057,18 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -969,6 +1077,9 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -983,18 +1094,21 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1003,12 +1117,15 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -1017,15 +1134,18 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -1034,9 +1154,12 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1045,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1055,6 +1178,9 @@
       </c>
       <c r="E41" t="n">
         <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1073,6 +1199,9 @@
       <c r="E42" t="n">
         <v>0</v>
       </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1090,6 +1219,9 @@
       <c r="E43" t="n">
         <v>0</v>
       </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1107,13 +1239,16 @@
       <c r="E44" t="n">
         <v>0</v>
       </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1122,6 +1257,9 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1130,21 +1268,24 @@
         <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -1153,18 +1294,21 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1173,6 +1317,9 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1187,18 +1334,21 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1207,6 +1357,9 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1215,21 +1368,24 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
       </c>
       <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -1238,9 +1394,12 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1260,6 +1419,9 @@
       <c r="E53" t="n">
         <v>0</v>
       </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1277,13 +1439,16 @@
       <c r="E54" t="n">
         <v>0</v>
       </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1292,12 +1457,15 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
@@ -1309,6 +1477,9 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1326,23 +1497,29 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
       </c>
       <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1357,9 +1534,12 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1368,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -1377,6 +1557,9 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,10 +1579,13 @@
       <c r="E61" t="n">
         <v>0</v>
       </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -1408,9 +1594,12 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1419,32 +1608,38 @@
         <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
       </c>
       <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1464,21 +1659,27 @@
       <c r="E65" t="n">
         <v>0</v>
       </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
       </c>
       <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1493,10 +1694,13 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1507,18 +1711,21 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -1530,12 +1737,15 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
+        <v>1</v>
+      </c>
+      <c r="F69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1547,15 +1757,18 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -1564,6 +1777,9 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1572,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -1581,6 +1797,9 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1600,6 +1819,9 @@
       <c r="E73" t="n">
         <v>1</v>
       </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1609,18 +1831,21 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
@@ -1632,6 +1857,9 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
+        <v>1</v>
+      </c>
+      <c r="F75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1651,6 +1879,9 @@
       <c r="E76" t="n">
         <v>0</v>
       </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1660,13 +1891,16 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1685,21 +1919,27 @@
       <c r="E78" t="n">
         <v>0</v>
       </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
       </c>
       <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,21 +1948,24 @@
         <v>0</v>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
       </c>
       <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
@@ -1731,15 +1974,18 @@
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
@@ -1752,6 +1998,9 @@
       </c>
       <c r="E82" t="n">
         <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -1770,10 +2019,13 @@
       <c r="E83" t="n">
         <v>1</v>
       </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
@@ -1782,9 +2034,12 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1796,18 +2051,21 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
@@ -1816,9 +2074,12 @@
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1836,6 +2097,9 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1847,12 +2111,15 @@
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
       </c>
       <c r="E88" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1872,13 +2139,16 @@
       <c r="E89" t="n">
         <v>0</v>
       </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>0</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -1887,12 +2157,15 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
+        <v>1</v>
+      </c>
+      <c r="F90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
@@ -1904,15 +2177,18 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -1921,12 +2197,15 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
@@ -1938,7 +2217,10 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -1946,21 +2228,24 @@
         <v>0</v>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
       </c>
       <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -1972,6 +2257,9 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1983,21 +2271,24 @@
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2006,23 +2297,29 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
       </c>
       <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2034,18 +2331,21 @@
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -2054,9 +2354,12 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2074,6 +2377,9 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2107,10 +2413,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -2119,9 +2428,12 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2130,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2140,6 +2452,9 @@
       </c>
       <c r="E3" t="n">
         <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2147,21 +2462,24 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -2174,6 +2492,9 @@
       </c>
       <c r="E5" t="n">
         <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2192,13 +2513,16 @@
       <c r="E6" t="n">
         <v>0</v>
       </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -2207,12 +2531,15 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -2221,32 +2548,38 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -2258,6 +2591,9 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2272,26 +2608,32 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2303,12 +2645,15 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2326,6 +2671,9 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2345,13 +2693,16 @@
       <c r="E15" t="n">
         <v>0</v>
       </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -2360,12 +2711,15 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -2377,7 +2731,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2391,32 +2748,38 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -2429,6 +2792,9 @@
       </c>
       <c r="E20" t="n">
         <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -2436,15 +2802,18 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2453,15 +2822,18 @@
         <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2470,15 +2842,18 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2487,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2496,12 +2871,15 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -2510,9 +2888,12 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2521,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2530,7 +2911,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2538,41 +2922,47 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2581,6 +2971,9 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2589,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2599,31 +2992,37 @@
       </c>
       <c r="E30" t="n">
         <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -2632,23 +3031,29 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2657,21 +3062,24 @@
         <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -2683,12 +3091,15 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -2700,7 +3111,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2708,21 +3122,24 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -2734,12 +3151,15 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -2748,9 +3168,12 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2759,21 +3182,24 @@
         <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -2786,6 +3212,9 @@
       </c>
       <c r="E41" t="n">
         <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -2799,18 +3228,21 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -2819,6 +3251,9 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2830,12 +3265,15 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2855,21 +3293,27 @@
       <c r="E45" t="n">
         <v>1</v>
       </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2889,6 +3333,9 @@
       <c r="E47" t="n">
         <v>0</v>
       </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2906,44 +3353,53 @@
       <c r="E48" t="n">
         <v>0</v>
       </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
       </c>
       <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
       </c>
       <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
@@ -2955,6 +3411,9 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2988,30 +3447,36 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -3020,6 +3485,9 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3039,10 +3507,13 @@
       <c r="E4" t="n">
         <v>0</v>
       </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -3051,9 +3522,12 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3065,12 +3539,15 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3079,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -3089,11 +3566,14 @@
       </c>
       <c r="E7" t="n">
         <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -3106,28 +3586,34 @@
       </c>
       <c r="E8" t="n">
         <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -3136,15 +3622,18 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -3153,9 +3642,12 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3175,21 +3667,27 @@
       <c r="E12" t="n">
         <v>0</v>
       </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3198,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -3207,6 +3705,9 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3226,30 +3727,36 @@
       <c r="E15" t="n">
         <v>0</v>
       </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -3258,15 +3765,18 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -3275,6 +3785,9 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3292,6 +3805,9 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3311,6 +3827,9 @@
       <c r="E20" t="n">
         <v>0</v>
       </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3320,21 +3839,24 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -3343,15 +3865,18 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -3360,12 +3885,15 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -3377,6 +3905,9 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3385,24 +3916,27 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -3411,12 +3945,15 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -3428,7 +3965,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -3436,15 +3976,18 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3453,32 +3996,38 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3493,18 +4042,21 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3513,12 +4065,15 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -3530,7 +4085,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3538,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3547,6 +4105,9 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3555,15 +4116,18 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3572,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3581,12 +4145,15 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -3595,9 +4162,12 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3615,6 +4185,9 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3623,15 +4196,18 @@
         <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3640,21 +4216,24 @@
         <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -3663,9 +4242,12 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3674,15 +4256,18 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3691,32 +4276,38 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3728,12 +4319,15 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3745,12 +4339,15 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3770,10 +4367,13 @@
       <c r="E47" t="n">
         <v>0</v>
       </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
@@ -3786,6 +4386,9 @@
       </c>
       <c r="E48" t="n">
         <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -3804,13 +4407,16 @@
       <c r="E49" t="n">
         <v>0</v>
       </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -3819,12 +4425,15 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
@@ -3833,9 +4442,12 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3844,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -3854,6 +4466,9 @@
       </c>
       <c r="E52" t="n">
         <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -3861,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -3871,14 +4486,17 @@
       </c>
       <c r="E53" t="n">
         <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -3887,23 +4505,29 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
       </c>
       <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3923,6 +4547,9 @@
       <c r="E56" t="n">
         <v>0</v>
       </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3932,12 +4559,15 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3946,24 +4576,27 @@
         <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -3972,15 +4605,18 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -3989,6 +4625,9 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3997,21 +4636,24 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
       </c>
       <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -4023,6 +4665,9 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4042,10 +4687,13 @@
       <c r="E63" t="n">
         <v>0</v>
       </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -4057,15 +4705,18 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -4074,6 +4725,9 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4082,15 +4736,18 @@
         <v>0</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4102,12 +4759,15 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4116,15 +4776,18 @@
         <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
       </c>
       <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4133,38 +4796,44 @@
         <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
       </c>
       <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
@@ -4173,9 +4842,12 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4193,6 +4865,9 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4201,15 +4876,18 @@
         <v>0</v>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4221,13 +4899,16 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -4235,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -4244,7 +4925,10 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -4252,24 +4936,27 @@
         <v>0</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -4278,6 +4965,9 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4286,38 +4976,44 @@
         <v>0</v>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
       </c>
       <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
       </c>
       <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
@@ -4326,18 +5022,21 @@
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -4346,6 +5045,9 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4354,15 +5056,18 @@
         <v>0</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
       </c>
       <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4382,6 +5087,9 @@
       <c r="E83" t="n">
         <v>0</v>
       </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -4399,6 +5107,9 @@
       <c r="E84" t="n">
         <v>0</v>
       </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -4411,10 +5122,13 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -4425,12 +5139,15 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4445,15 +5162,18 @@
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
@@ -4466,14 +5186,17 @@
       </c>
       <c r="E88" t="n">
         <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -4482,6 +5205,9 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4501,10 +5227,13 @@
       <c r="E90" t="n">
         <v>0</v>
       </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
@@ -4517,6 +5246,9 @@
       </c>
       <c r="E91" t="n">
         <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -4535,6 +5267,9 @@
       <c r="E92" t="n">
         <v>0</v>
       </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -4552,6 +5287,9 @@
       <c r="E93" t="n">
         <v>0</v>
       </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -4569,27 +5307,33 @@
       <c r="E94" t="n">
         <v>0</v>
       </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
       </c>
       <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -4598,9 +5342,12 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4609,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -4618,12 +5365,15 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -4636,6 +5386,9 @@
       </c>
       <c r="E98" t="n">
         <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -4654,6 +5407,9 @@
       <c r="E99" t="n">
         <v>1</v>
       </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -4666,18 +5422,21 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
+        <v>1</v>
+      </c>
+      <c r="F100" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -4686,12 +5445,15 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -4703,6 +5465,9 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
+        <v>1</v>
+      </c>
+      <c r="F102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4714,12 +5479,15 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4728,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -4737,6 +5505,9 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
+        <v>1</v>
+      </c>
+      <c r="F104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4756,10 +5527,13 @@
       <c r="E105" t="n">
         <v>0</v>
       </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
@@ -4771,23 +5545,29 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
       </c>
       <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4799,13 +5579,16 @@
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -4816,18 +5599,21 @@
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -4839,7 +5625,10 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -4858,10 +5647,13 @@
       <c r="E111" t="n">
         <v>0</v>
       </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -4870,18 +5662,21 @@
         <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -4890,6 +5685,9 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4898,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -4907,7 +5705,10 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -4915,7 +5716,7 @@
         <v>0</v>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -4924,29 +5725,35 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
+        <v>1</v>
+      </c>
+      <c r="F115" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
       </c>
       <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -4955,32 +5762,38 @@
         <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D118" t="n">
         <v>0</v>
       </c>
       <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -4993,11 +5806,14 @@
       </c>
       <c r="E119" t="n">
         <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -5010,6 +5826,9 @@
       </c>
       <c r="E120" t="n">
         <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -5017,15 +5836,18 @@
         <v>0</v>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5037,12 +5859,15 @@
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5054,12 +5879,15 @@
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
       </c>
       <c r="E123" t="n">
+        <v>1</v>
+      </c>
+      <c r="F123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5068,15 +5896,18 @@
         <v>0</v>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
       </c>
       <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5088,18 +5919,21 @@
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -5111,12 +5945,15 @@
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -5129,6 +5966,9 @@
       </c>
       <c r="E127" t="n">
         <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -5139,21 +5979,24 @@
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -5162,6 +6005,9 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5176,10 +6022,13 @@
         <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -5187,15 +6036,18 @@
         <v>0</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
       </c>
       <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5215,6 +6067,9 @@
       <c r="E132" t="n">
         <v>0</v>
       </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -5227,9 +6082,12 @@
         <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E133" t="n">
+        <v>1</v>
+      </c>
+      <c r="F133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5238,21 +6096,24 @@
         <v>0</v>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D134" t="n">
         <v>0</v>
       </c>
       <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -5264,12 +6125,15 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
+        <v>1</v>
+      </c>
+      <c r="F135" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -5281,7 +6145,10 @@
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -5289,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -5298,6 +6165,9 @@
         <v>0</v>
       </c>
       <c r="E137" t="n">
+        <v>1</v>
+      </c>
+      <c r="F137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5317,13 +6187,16 @@
       <c r="E138" t="n">
         <v>0</v>
       </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -5332,6 +6205,9 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5340,7 +6216,7 @@
         <v>0</v>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -5349,6 +6225,9 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
+        <v>1</v>
+      </c>
+      <c r="F140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5357,7 +6236,7 @@
         <v>0</v>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -5366,7 +6245,10 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -5385,6 +6267,9 @@
       <c r="E142" t="n">
         <v>0</v>
       </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -5394,18 +6279,21 @@
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D143" t="n">
         <v>0</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B144" t="n">
         <v>0</v>
@@ -5418,11 +6306,14 @@
       </c>
       <c r="E144" t="n">
         <v>0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B145" t="n">
         <v>0</v>
@@ -5434,6 +6325,9 @@
         <v>0</v>
       </c>
       <c r="E145" t="n">
+        <v>1</v>
+      </c>
+      <c r="F145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5442,7 +6336,7 @@
         <v>0</v>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -5451,6 +6345,9 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
+        <v>1</v>
+      </c>
+      <c r="F146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5459,15 +6356,18 @@
         <v>0</v>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D147" t="n">
         <v>0</v>
       </c>
       <c r="E147" t="n">
+        <v>0</v>
+      </c>
+      <c r="F147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5482,10 +6382,13 @@
         <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -5502,6 +6405,9 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5510,24 +6416,27 @@
         <v>0</v>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D150" t="n">
         <v>0</v>
       </c>
       <c r="E150" t="n">
+        <v>0</v>
+      </c>
+      <c r="F150" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -5536,6 +6445,9 @@
         <v>0</v>
       </c>
       <c r="E151" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5550,9 +6462,12 @@
         <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E152" t="n">
+        <v>1</v>
+      </c>
+      <c r="F152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5564,12 +6479,15 @@
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E153" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5589,13 +6507,16 @@
       <c r="E154" t="n">
         <v>0</v>
       </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -5604,6 +6525,9 @@
         <v>0</v>
       </c>
       <c r="E155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5612,21 +6536,24 @@
         <v>0</v>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
       </c>
       <c r="E156" t="n">
+        <v>0</v>
+      </c>
+      <c r="F156" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B157" t="n">
         <v>0</v>
@@ -5638,23 +6565,29 @@
         <v>0</v>
       </c>
       <c r="E157" t="n">
+        <v>1</v>
+      </c>
+      <c r="F157" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B158" t="n">
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D158" t="n">
         <v>0</v>
       </c>
       <c r="E158" t="n">
+        <v>0</v>
+      </c>
+      <c r="F158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5666,18 +6599,21 @@
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D159" t="n">
         <v>0</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B160" t="n">
         <v>0</v>
@@ -5686,9 +6622,12 @@
         <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E160" t="n">
+        <v>0</v>
+      </c>
+      <c r="F160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5697,7 +6636,7 @@
         <v>0</v>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -5707,6 +6646,9 @@
       </c>
       <c r="E161" t="n">
         <v>0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -5714,15 +6656,18 @@
         <v>0</v>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5737,15 +6682,18 @@
         <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E163" t="n">
+        <v>1</v>
+      </c>
+      <c r="F163" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B164" t="n">
         <v>0</v>
@@ -5754,9 +6702,12 @@
         <v>0</v>
       </c>
       <c r="D164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E164" t="n">
+        <v>0</v>
+      </c>
+      <c r="F164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5765,24 +6716,27 @@
         <v>0</v>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
       </c>
       <c r="D165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E165" t="n">
+        <v>0</v>
+      </c>
+      <c r="F165" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -5791,6 +6745,9 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5799,7 +6756,7 @@
         <v>0</v>
       </c>
       <c r="B167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -5808,15 +6765,18 @@
         <v>0</v>
       </c>
       <c r="E167" t="n">
+        <v>1</v>
+      </c>
+      <c r="F167" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -5825,15 +6785,18 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -5842,6 +6805,9 @@
         <v>0</v>
       </c>
       <c r="E169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5853,12 +6819,15 @@
         <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5876,6 +6845,9 @@
         <v>0</v>
       </c>
       <c r="E171" t="n">
+        <v>0</v>
+      </c>
+      <c r="F171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5895,6 +6867,9 @@
       <c r="E172" t="n">
         <v>0</v>
       </c>
+      <c r="F172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -5912,6 +6887,9 @@
       <c r="E173" t="n">
         <v>0</v>
       </c>
+      <c r="F173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -5921,18 +6899,21 @@
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E174" t="n">
+        <v>0</v>
+      </c>
+      <c r="F174" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B175" t="n">
         <v>0</v>
@@ -5944,7 +6925,10 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -5963,38 +6947,47 @@
       <c r="E176" t="n">
         <v>0</v>
       </c>
+      <c r="F176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B177" t="n">
         <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D177" t="n">
         <v>0</v>
       </c>
       <c r="E177" t="n">
+        <v>0</v>
+      </c>
+      <c r="F177" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B178" t="n">
         <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D178" t="n">
         <v>0</v>
       </c>
       <c r="E178" t="n">
+        <v>0</v>
+      </c>
+      <c r="F178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6006,12 +6999,15 @@
         <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6023,13 +7019,16 @@
         <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D180" t="n">
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -6048,13 +7047,16 @@
       <c r="E181" t="n">
         <v>0</v>
       </c>
+      <c r="F181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -6063,23 +7065,29 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
+        <v>0</v>
+      </c>
+      <c r="F182" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B183" t="n">
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D183" t="n">
         <v>0</v>
       </c>
       <c r="E183" t="n">
+        <v>0</v>
+      </c>
+      <c r="F183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6088,21 +7096,24 @@
         <v>0</v>
       </c>
       <c r="B184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E184" t="n">
+        <v>0</v>
+      </c>
+      <c r="F184" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B185" t="n">
         <v>0</v>
@@ -6114,7 +7125,10 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -6128,18 +7142,21 @@
         <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E186" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -6148,12 +7165,15 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
+        <v>0</v>
+      </c>
+      <c r="F187" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B188" t="n">
         <v>0</v>
@@ -6165,6 +7185,9 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
+        <v>1</v>
+      </c>
+      <c r="F188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6173,7 +7196,7 @@
         <v>0</v>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -6183,14 +7206,17 @@
       </c>
       <c r="E189" t="n">
         <v>0</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -6199,12 +7225,15 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
+        <v>0</v>
+      </c>
+      <c r="F190" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B191" t="n">
         <v>0</v>
@@ -6213,9 +7242,12 @@
         <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E191" t="n">
+        <v>0</v>
+      </c>
+      <c r="F191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6224,7 +7256,7 @@
         <v>0</v>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -6233,6 +7265,9 @@
         <v>0</v>
       </c>
       <c r="E192" t="n">
+        <v>1</v>
+      </c>
+      <c r="F192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6241,24 +7276,27 @@
         <v>0</v>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D193" t="n">
         <v>0</v>
       </c>
       <c r="E193" t="n">
+        <v>0</v>
+      </c>
+      <c r="F193" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -6267,12 +7305,15 @@
         <v>0</v>
       </c>
       <c r="E194" t="n">
+        <v>0</v>
+      </c>
+      <c r="F194" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B195" t="n">
         <v>0</v>
@@ -6284,7 +7325,10 @@
         <v>0</v>
       </c>
       <c r="E195" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -6303,10 +7347,13 @@
       <c r="E196" t="n">
         <v>0</v>
       </c>
+      <c r="F196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B197" t="n">
         <v>0</v>
@@ -6318,6 +7365,9 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
+        <v>1</v>
+      </c>
+      <c r="F197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6337,6 +7387,9 @@
       <c r="E198" t="n">
         <v>0</v>
       </c>
+      <c r="F198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -6354,6 +7407,9 @@
       <c r="E199" t="n">
         <v>0</v>
       </c>
+      <c r="F199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -6366,15 +7422,18 @@
         <v>0</v>
       </c>
       <c r="D200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E200" t="n">
         <v>0</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B201" t="n">
         <v>0</v>
@@ -6387,6 +7446,9 @@
       </c>
       <c r="E201" t="n">
         <v>0</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -6405,6 +7467,9 @@
       <c r="E202" t="n">
         <v>0</v>
       </c>
+      <c r="F202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -6417,10 +7482,13 @@
         <v>0</v>
       </c>
       <c r="D203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E203" t="n">
         <v>0</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -6431,13 +7499,16 @@
         <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D204" t="n">
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -6454,12 +7525,15 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
+        <v>0</v>
+      </c>
+      <c r="F205" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B206" t="n">
         <v>0</v>
@@ -6471,7 +7545,10 @@
         <v>0</v>
       </c>
       <c r="E206" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -6490,6 +7567,9 @@
       <c r="E207" t="n">
         <v>0</v>
       </c>
+      <c r="F207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -6502,10 +7582,13 @@
         <v>0</v>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E208" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -6513,7 +7596,7 @@
         <v>0</v>
       </c>
       <c r="B209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -6522,7 +7605,10 @@
         <v>0</v>
       </c>
       <c r="E209" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -6536,18 +7622,21 @@
         <v>0</v>
       </c>
       <c r="D210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E210" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -6556,12 +7645,15 @@
         <v>0</v>
       </c>
       <c r="E211" t="n">
+        <v>0</v>
+      </c>
+      <c r="F211" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B212" t="n">
         <v>0</v>
@@ -6573,6 +7665,9 @@
         <v>0</v>
       </c>
       <c r="E212" t="n">
+        <v>1</v>
+      </c>
+      <c r="F212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6592,10 +7687,13 @@
       <c r="E213" t="n">
         <v>0</v>
       </c>
+      <c r="F213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B214" t="n">
         <v>0</v>
@@ -6604,9 +7702,12 @@
         <v>0</v>
       </c>
       <c r="D214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E214" t="n">
+        <v>0</v>
+      </c>
+      <c r="F214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6626,10 +7727,13 @@
       <c r="E215" t="n">
         <v>0</v>
       </c>
+      <c r="F215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B216" t="n">
         <v>0</v>
@@ -6641,7 +7745,10 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -6652,12 +7759,15 @@
         <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E217" t="n">
+        <v>0</v>
+      </c>
+      <c r="F217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6666,7 +7776,7 @@
         <v>0</v>
       </c>
       <c r="B218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6676,6 +7786,9 @@
       </c>
       <c r="E218" t="n">
         <v>0</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -6683,7 +7796,7 @@
         <v>0</v>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6692,7 +7805,10 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -6711,10 +7827,13 @@
       <c r="E220" t="n">
         <v>0</v>
       </c>
+      <c r="F220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B221" t="n">
         <v>0</v>
@@ -6723,9 +7842,12 @@
         <v>0</v>
       </c>
       <c r="D221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E221" t="n">
+        <v>0</v>
+      </c>
+      <c r="F221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6737,18 +7859,21 @@
         <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D222" t="n">
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B223" t="n">
         <v>0</v>
@@ -6761,6 +7886,9 @@
       </c>
       <c r="E223" t="n">
         <v>0</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -6768,15 +7896,18 @@
         <v>0</v>
       </c>
       <c r="B224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D224" t="n">
         <v>0</v>
       </c>
       <c r="E224" t="n">
+        <v>0</v>
+      </c>
+      <c r="F224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6785,15 +7916,18 @@
         <v>0</v>
       </c>
       <c r="B225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D225" t="n">
         <v>0</v>
       </c>
       <c r="E225" t="n">
+        <v>0</v>
+      </c>
+      <c r="F225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6808,9 +7942,12 @@
         <v>0</v>
       </c>
       <c r="D226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E226" t="n">
+        <v>1</v>
+      </c>
+      <c r="F226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6822,12 +7959,15 @@
         <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E227" t="n">
+        <v>0</v>
+      </c>
+      <c r="F227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6847,21 +7987,27 @@
       <c r="E228" t="n">
         <v>0</v>
       </c>
+      <c r="F228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
         <v>0</v>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
       </c>
       <c r="D229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E229" t="n">
+        <v>0</v>
+      </c>
+      <c r="F229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6870,15 +8016,18 @@
         <v>0</v>
       </c>
       <c r="B230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
       </c>
       <c r="D230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E230" t="n">
+        <v>0</v>
+      </c>
+      <c r="F230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6887,7 +8036,7 @@
         <v>0</v>
       </c>
       <c r="B231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6897,11 +8046,14 @@
       </c>
       <c r="E231" t="n">
         <v>0</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B232" t="n">
         <v>0</v>
@@ -6910,9 +8062,12 @@
         <v>0</v>
       </c>
       <c r="D232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E232" t="n">
+        <v>0</v>
+      </c>
+      <c r="F232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6932,10 +8087,13 @@
       <c r="E233" t="n">
         <v>0</v>
       </c>
+      <c r="F233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B234" t="n">
         <v>0</v>
@@ -6948,6 +8106,9 @@
       </c>
       <c r="E234" t="n">
         <v>0</v>
+      </c>
+      <c r="F234" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -6958,18 +8119,21 @@
         <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D235" t="n">
         <v>0</v>
       </c>
       <c r="E235" t="n">
+        <v>1</v>
+      </c>
+      <c r="F235" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B236" t="n">
         <v>0</v>
@@ -6978,9 +8142,12 @@
         <v>0</v>
       </c>
       <c r="D236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E236" t="n">
+        <v>0</v>
+      </c>
+      <c r="F236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7000,27 +8167,33 @@
       <c r="E237" t="n">
         <v>0</v>
       </c>
+      <c r="F237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B238" t="n">
         <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D238" t="n">
         <v>0</v>
       </c>
       <c r="E238" t="n">
+        <v>0</v>
+      </c>
+      <c r="F238" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B239" t="n">
         <v>0</v>
@@ -7033,6 +8206,9 @@
       </c>
       <c r="E239" t="n">
         <v>0</v>
+      </c>
+      <c r="F239" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -7040,7 +8216,7 @@
         <v>0</v>
       </c>
       <c r="B240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -7049,15 +8225,18 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
+        <v>1</v>
+      </c>
+      <c r="F240" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -7066,6 +8245,9 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
+        <v>0</v>
+      </c>
+      <c r="F241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7077,12 +8259,15 @@
         <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D242" t="n">
         <v>0</v>
       </c>
       <c r="E242" t="n">
+        <v>1</v>
+      </c>
+      <c r="F242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7102,10 +8287,13 @@
       <c r="E243" t="n">
         <v>0</v>
       </c>
+      <c r="F243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B244" t="n">
         <v>0</v>
@@ -7114,9 +8302,12 @@
         <v>0</v>
       </c>
       <c r="D244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E244" t="n">
+        <v>0</v>
+      </c>
+      <c r="F244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7125,15 +8316,18 @@
         <v>0</v>
       </c>
       <c r="B245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D245" t="n">
         <v>0</v>
       </c>
       <c r="E245" t="n">
+        <v>0</v>
+      </c>
+      <c r="F245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7153,6 +8347,9 @@
       <c r="E246" t="n">
         <v>0</v>
       </c>
+      <c r="F246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -7162,21 +8359,24 @@
         <v>0</v>
       </c>
       <c r="C247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D247" t="n">
         <v>0</v>
       </c>
       <c r="E247" t="n">
+        <v>1</v>
+      </c>
+      <c r="F247" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -7185,6 +8385,9 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
+        <v>0</v>
+      </c>
+      <c r="F248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7193,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -7202,6 +8405,9 @@
         <v>0</v>
       </c>
       <c r="E249" t="n">
+        <v>1</v>
+      </c>
+      <c r="F249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7210,7 +8416,7 @@
         <v>0</v>
       </c>
       <c r="B250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -7220,6 +8426,9 @@
       </c>
       <c r="E250" t="n">
         <v>0</v>
+      </c>
+      <c r="F250" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -7227,7 +8436,7 @@
         <v>0</v>
       </c>
       <c r="B251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -7237,6 +8446,9 @@
       </c>
       <c r="E251" t="n">
         <v>0</v>
+      </c>
+      <c r="F251" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/test_data2/true_cols.xlsx
+++ b/test_data2/true_cols.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">V1</t>
   </si>
@@ -23,15 +23,6 @@
   </si>
   <si>
     <t xml:space="preserve">V3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V6</t>
   </si>
 </sst>
 </file>
@@ -373,33 +364,15 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -413,15 +386,6 @@
       <c r="C3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -431,16 +395,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -451,56 +406,29 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -513,33 +441,15 @@
       <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -553,53 +463,26 @@
       <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -613,33 +496,15 @@
       <c r="C13" t="n">
         <v>0</v>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -648,19 +513,10 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -668,18 +524,9 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -693,73 +540,37 @@
       <c r="C17" t="n">
         <v>0</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -768,39 +579,21 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -808,58 +601,31 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -871,15 +637,6 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -893,53 +650,26 @@
       <c r="C27" t="n">
         <v>0</v>
       </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -951,55 +681,28 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1011,15 +714,6 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1028,78 +722,42 @@
         <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1113,113 +771,59 @@
       <c r="C38" t="n">
         <v>0</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1233,15 +837,6 @@
       <c r="C44" t="n">
         <v>0</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1253,15 +848,6 @@
       <c r="C45" t="n">
         <v>0</v>
       </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1273,153 +859,81 @@
       <c r="C46" t="n">
         <v>0</v>
       </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1428,19 +942,10 @@
         <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1453,33 +958,15 @@
       <c r="C55" t="n">
         <v>0</v>
       </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="n">
-        <v>1</v>
-      </c>
-      <c r="F56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1488,19 +975,10 @@
         <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1508,18 +986,9 @@
         <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1528,79 +997,43 @@
         <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>1</v>
-      </c>
-      <c r="F59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>1</v>
-      </c>
-      <c r="F60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1608,19 +1041,10 @@
         <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1628,18 +1052,9 @@
         <v>0</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1653,34 +1068,16 @@
       <c r="C65" t="n">
         <v>1</v>
       </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1691,35 +1088,17 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1728,58 +1107,31 @@
         <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>1</v>
-      </c>
-      <c r="F69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1788,38 +1140,20 @@
         <v>0</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="n">
-        <v>1</v>
-      </c>
-      <c r="F72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>1</v>
-      </c>
-      <c r="F73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1828,18 +1162,9 @@
         <v>0</v>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1848,18 +1173,9 @@
         <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" t="n">
-        <v>1</v>
-      </c>
-      <c r="F75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1873,15 +1189,6 @@
       <c r="C76" t="n">
         <v>0</v>
       </c>
-      <c r="D76" t="n">
-        <v>0</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1891,15 +1198,6 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0</v>
-      </c>
-      <c r="F77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1908,58 +1206,31 @@
         <v>0</v>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0</v>
-      </c>
-      <c r="F79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0</v>
-      </c>
-      <c r="F80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1971,16 +1242,7 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
-      </c>
-      <c r="D81" t="n">
-        <v>1</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -1991,15 +1253,6 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0</v>
-      </c>
-      <c r="F82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2008,79 +1261,43 @@
         <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0</v>
-      </c>
-      <c r="E83" t="n">
-        <v>1</v>
-      </c>
-      <c r="F83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
-      </c>
-      <c r="D84" t="n">
-        <v>1</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0</v>
-      </c>
-      <c r="F84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0</v>
-      </c>
-      <c r="F85" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -2091,55 +1308,28 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0</v>
-      </c>
-      <c r="F87" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" t="n">
-        <v>1</v>
-      </c>
-      <c r="F88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
-      </c>
-      <c r="D89" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0</v>
-      </c>
-      <c r="F89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2148,18 +1338,9 @@
         <v>0</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0</v>
-      </c>
-      <c r="E90" t="n">
-        <v>1</v>
-      </c>
-      <c r="F90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2168,39 +1349,21 @@
         <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0</v>
-      </c>
-      <c r="E91" t="n">
-        <v>1</v>
-      </c>
-      <c r="F91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -2213,33 +1376,15 @@
       <c r="C93" t="n">
         <v>0</v>
       </c>
-      <c r="D93" t="n">
-        <v>0</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0</v>
-      </c>
-      <c r="F94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2248,58 +1393,31 @@
         <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" t="n">
-        <v>1</v>
-      </c>
-      <c r="F95" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0</v>
-      </c>
-      <c r="F96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0</v>
-      </c>
-      <c r="F97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2313,74 +1431,38 @@
       <c r="C98" t="n">
         <v>1</v>
       </c>
-      <c r="D98" t="n">
-        <v>0</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0</v>
-      </c>
-      <c r="F99" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0</v>
-      </c>
-      <c r="F101" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2407,73 +1489,37 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2485,35 +1531,17 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2527,33 +1555,15 @@
       <c r="C7" t="n">
         <v>0</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2567,73 +1577,37 @@
       <c r="C9" t="n">
         <v>0</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2647,34 +1621,16 @@
       <c r="C13" t="n">
         <v>1</v>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -2687,53 +1643,26 @@
       <c r="C15" t="n">
         <v>0</v>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2745,35 +1674,17 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2782,19 +1693,10 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -2802,18 +1704,9 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2822,38 +1715,20 @@
         <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2867,33 +1742,15 @@
       <c r="C24" t="n">
         <v>0</v>
       </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2902,19 +1759,10 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -2927,74 +1775,38 @@
       <c r="C27" t="n">
         <v>1</v>
       </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -3007,34 +1819,16 @@
       <c r="C31" t="n">
         <v>1</v>
       </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -3042,38 +1836,20 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3085,16 +1861,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -3107,33 +1874,15 @@
       <c r="C36" t="n">
         <v>0</v>
       </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3142,18 +1891,9 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3167,15 +1907,6 @@
       <c r="C39" t="n">
         <v>0</v>
       </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3185,16 +1916,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -3202,19 +1924,10 @@
         <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -3225,15 +1938,6 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3247,73 +1951,37 @@
       <c r="C43" t="n">
         <v>0</v>
       </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3325,16 +1993,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -3347,15 +2006,6 @@
       <c r="C48" t="n">
         <v>0</v>
       </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3367,33 +2017,15 @@
       <c r="C49" t="n">
         <v>0</v>
       </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3405,16 +2037,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>1</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3441,33 +2064,15 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,19 +2081,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3501,15 +2097,6 @@
       <c r="C4" t="n">
         <v>0</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -3519,16 +2106,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -3539,36 +2117,18 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -3576,19 +2136,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -3596,18 +2147,9 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3619,35 +2161,17 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3661,15 +2185,6 @@
       <c r="C12" t="n">
         <v>0</v>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -3679,16 +2194,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -3699,16 +2205,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -3721,15 +2218,6 @@
       <c r="C15" t="n">
         <v>0</v>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -3739,56 +2227,29 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -3796,19 +2257,10 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -3821,73 +2273,37 @@
       <c r="C20" t="n">
         <v>1</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3896,58 +2312,31 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3961,33 +2350,15 @@
       <c r="C27" t="n">
         <v>0</v>
       </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,38 +2367,20 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4036,18 +2389,9 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4056,19 +2400,10 @@
         <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -4081,15 +2416,6 @@
       <c r="C33" t="n">
         <v>0</v>
       </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4099,16 +2425,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -4116,58 +2433,31 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4179,35 +2469,17 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4221,15 +2493,6 @@
       <c r="C40" t="n">
         <v>0</v>
       </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4241,73 +2504,37 @@
       <c r="C41" t="n">
         <v>0</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4321,74 +2548,38 @@
       <c r="C45" t="n">
         <v>1</v>
       </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -4401,15 +2592,6 @@
       <c r="C49" t="n">
         <v>0</v>
       </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4421,74 +2603,38 @@
       <c r="C50" t="n">
         <v>0</v>
       </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -4501,33 +2647,15 @@
       <c r="C54" t="n">
         <v>0</v>
       </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>0</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4536,18 +2664,9 @@
         <v>0</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4556,18 +2675,9 @@
         <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4576,18 +2686,9 @@
         <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4601,15 +2702,6 @@
       <c r="C59" t="n">
         <v>0</v>
       </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4621,33 +2713,15 @@
       <c r="C60" t="n">
         <v>0</v>
       </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4659,16 +2733,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>1</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -4679,16 +2744,7 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -4701,15 +2757,6 @@
       <c r="C64" t="n">
         <v>0</v>
       </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4721,33 +2768,15 @@
       <c r="C65" t="n">
         <v>0</v>
       </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4756,18 +2785,9 @@
         <v>0</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4776,38 +2796,20 @@
         <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>1</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4821,33 +2823,15 @@
       <c r="C70" t="n">
         <v>0</v>
       </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4856,158 +2840,86 @@
         <v>0</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>1</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
-      </c>
-      <c r="D76" t="n">
-        <v>1</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0</v>
-      </c>
-      <c r="F77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
-      <c r="F78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0</v>
-      </c>
-      <c r="F79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5021,15 +2933,6 @@
       <c r="C80" t="n">
         <v>0</v>
       </c>
-      <c r="D80" t="n">
-        <v>0</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -5041,15 +2944,6 @@
       <c r="C81" t="n">
         <v>0</v>
       </c>
-      <c r="D81" t="n">
-        <v>0</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -5061,33 +2955,15 @@
       <c r="C82" t="n">
         <v>0</v>
       </c>
-      <c r="D82" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0</v>
-      </c>
-      <c r="F83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5101,15 +2977,6 @@
       <c r="C84" t="n">
         <v>0</v>
       </c>
-      <c r="D84" t="n">
-        <v>0</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -5119,15 +2986,6 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0</v>
-      </c>
-      <c r="F85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5136,38 +2994,20 @@
         <v>0</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
-      </c>
-      <c r="D86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0</v>
-      </c>
-      <c r="F86" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
-      </c>
-      <c r="D87" t="n">
-        <v>1</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0</v>
-      </c>
-      <c r="F87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5176,19 +3016,10 @@
         <v>0</v>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0</v>
-      </c>
-      <c r="F88" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -5201,33 +3032,15 @@
       <c r="C89" t="n">
         <v>0</v>
       </c>
-      <c r="D89" t="n">
-        <v>0</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0</v>
-      </c>
-      <c r="F90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5239,15 +3052,6 @@
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0</v>
-      </c>
-      <c r="F91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5256,18 +3060,9 @@
         <v>0</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
-      </c>
-      <c r="D92" t="n">
-        <v>1</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0</v>
-      </c>
-      <c r="F92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5281,33 +3076,15 @@
       <c r="C93" t="n">
         <v>0</v>
       </c>
-      <c r="D93" t="n">
-        <v>0</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0</v>
-      </c>
-      <c r="F94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5321,15 +3098,6 @@
       <c r="C95" t="n">
         <v>0</v>
       </c>
-      <c r="D95" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -5341,54 +3109,27 @@
       <c r="C96" t="n">
         <v>0</v>
       </c>
-      <c r="D96" t="n">
-        <v>0</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0</v>
-      </c>
-      <c r="F97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0</v>
-      </c>
-      <c r="F98" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -5399,35 +3140,17 @@
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0</v>
-      </c>
-      <c r="E99" t="n">
-        <v>1</v>
-      </c>
-      <c r="F99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0</v>
-      </c>
-      <c r="E100" t="n">
-        <v>1</v>
-      </c>
-      <c r="F100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5441,73 +3164,37 @@
       <c r="C101" t="n">
         <v>0</v>
       </c>
-      <c r="D101" t="n">
-        <v>0</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>0</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0</v>
-      </c>
-      <c r="E102" t="n">
-        <v>1</v>
-      </c>
-      <c r="F102" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
-      </c>
-      <c r="D103" t="n">
-        <v>1</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0</v>
-      </c>
-      <c r="F103" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0</v>
-      </c>
-      <c r="E104" t="n">
-        <v>1</v>
-      </c>
-      <c r="F104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5521,54 +3208,27 @@
       <c r="C105" t="n">
         <v>0</v>
       </c>
-      <c r="D105" t="n">
-        <v>0</v>
-      </c>
-      <c r="E105" t="n">
-        <v>0</v>
-      </c>
-      <c r="F105" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0</v>
-      </c>
-      <c r="F106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0</v>
-      </c>
-      <c r="F107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -5579,15 +3239,6 @@
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0</v>
-      </c>
-      <c r="E108" t="n">
-        <v>0</v>
-      </c>
-      <c r="F108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5601,33 +3252,15 @@
       <c r="C109" t="n">
         <v>1</v>
       </c>
-      <c r="D109" t="n">
-        <v>0</v>
-      </c>
-      <c r="E109" t="n">
-        <v>0</v>
-      </c>
-      <c r="F109" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0</v>
-      </c>
-      <c r="F110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5641,15 +3274,6 @@
       <c r="C111" t="n">
         <v>0</v>
       </c>
-      <c r="D111" t="n">
-        <v>0</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0</v>
-      </c>
-      <c r="F111" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -5659,35 +3283,17 @@
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
-      </c>
-      <c r="D112" t="n">
-        <v>1</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0</v>
-      </c>
-      <c r="F112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0</v>
-      </c>
-      <c r="F113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5696,19 +3302,10 @@
         <v>0</v>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -5719,35 +3316,17 @@
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0</v>
-      </c>
-      <c r="E115" t="n">
-        <v>1</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0</v>
-      </c>
-      <c r="F116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5761,15 +3340,6 @@
       <c r="C117" t="n">
         <v>0</v>
       </c>
-      <c r="D117" t="n">
-        <v>0</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -5781,15 +3351,6 @@
       <c r="C118" t="n">
         <v>1</v>
       </c>
-      <c r="D118" t="n">
-        <v>0</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0</v>
-      </c>
-      <c r="F118" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -5799,15 +3360,6 @@
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0</v>
-      </c>
-      <c r="F119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5819,15 +3371,6 @@
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0</v>
-      </c>
-      <c r="F120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5841,33 +3384,15 @@
       <c r="C121" t="n">
         <v>0</v>
       </c>
-      <c r="D121" t="n">
-        <v>0</v>
-      </c>
-      <c r="E121" t="n">
-        <v>0</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
-      </c>
-      <c r="D122" t="n">
-        <v>1</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0</v>
-      </c>
-      <c r="F122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5879,16 +3404,7 @@
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" t="n">
-        <v>1</v>
-      </c>
-      <c r="F123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -5896,18 +3412,9 @@
         <v>0</v>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0</v>
-      </c>
-      <c r="F124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5919,56 +3426,29 @@
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0</v>
-      </c>
-      <c r="F125" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0</v>
-      </c>
-      <c r="F126" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0</v>
-      </c>
-      <c r="F127" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -5981,33 +3461,15 @@
       <c r="C128" t="n">
         <v>1</v>
       </c>
-      <c r="D128" t="n">
-        <v>0</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0</v>
-      </c>
-      <c r="F128" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0</v>
-      </c>
-      <c r="E129" t="n">
-        <v>0</v>
-      </c>
-      <c r="F129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6019,16 +3481,7 @@
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
-      </c>
-      <c r="D130" t="n">
-        <v>1</v>
-      </c>
-      <c r="E130" t="n">
-        <v>0</v>
-      </c>
-      <c r="F130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -6041,73 +3494,37 @@
       <c r="C131" t="n">
         <v>0</v>
       </c>
-      <c r="D131" t="n">
-        <v>0</v>
-      </c>
-      <c r="E131" t="n">
-        <v>0</v>
-      </c>
-      <c r="F131" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0</v>
-      </c>
-      <c r="E132" t="n">
-        <v>0</v>
-      </c>
-      <c r="F132" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0</v>
-      </c>
-      <c r="E133" t="n">
-        <v>1</v>
-      </c>
-      <c r="F133" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0</v>
-      </c>
-      <c r="E134" t="n">
-        <v>0</v>
-      </c>
-      <c r="F134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6119,16 +3536,7 @@
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0</v>
-      </c>
-      <c r="E135" t="n">
-        <v>1</v>
-      </c>
-      <c r="F135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -6141,74 +3549,38 @@
       <c r="C136" t="n">
         <v>0</v>
       </c>
-      <c r="D136" t="n">
-        <v>0</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0</v>
-      </c>
-      <c r="F136" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0</v>
-      </c>
-      <c r="E137" t="n">
-        <v>1</v>
-      </c>
-      <c r="F137" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0</v>
-      </c>
-      <c r="E138" t="n">
-        <v>0</v>
-      </c>
-      <c r="F138" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0</v>
-      </c>
-      <c r="E139" t="n">
-        <v>0</v>
-      </c>
-      <c r="F139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -6219,16 +3591,7 @@
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0</v>
-      </c>
-      <c r="E140" t="n">
-        <v>1</v>
-      </c>
-      <c r="F140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -6236,98 +3599,53 @@
         <v>0</v>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
-      </c>
-      <c r="D141" t="n">
-        <v>0</v>
-      </c>
-      <c r="E141" t="n">
-        <v>0</v>
-      </c>
-      <c r="F141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B142" t="n">
         <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0</v>
-      </c>
-      <c r="E142" t="n">
-        <v>0</v>
-      </c>
-      <c r="F142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B143" t="n">
         <v>0</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
-      </c>
-      <c r="D143" t="n">
-        <v>0</v>
-      </c>
-      <c r="E143" t="n">
-        <v>0</v>
-      </c>
-      <c r="F143" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B144" t="n">
         <v>0</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
-      </c>
-      <c r="D144" t="n">
-        <v>0</v>
-      </c>
-      <c r="E144" t="n">
-        <v>0</v>
-      </c>
-      <c r="F144" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B145" t="n">
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
-      </c>
-      <c r="D145" t="n">
-        <v>0</v>
-      </c>
-      <c r="E145" t="n">
-        <v>1</v>
-      </c>
-      <c r="F145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6336,38 +3654,20 @@
         <v>0</v>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
-      </c>
-      <c r="D146" t="n">
-        <v>0</v>
-      </c>
-      <c r="E146" t="n">
-        <v>1</v>
-      </c>
-      <c r="F146" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B147" t="n">
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
-      </c>
-      <c r="D147" t="n">
-        <v>0</v>
-      </c>
-      <c r="E147" t="n">
-        <v>0</v>
-      </c>
-      <c r="F147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6379,15 +3679,6 @@
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
-      </c>
-      <c r="D148" t="n">
-        <v>0</v>
-      </c>
-      <c r="E148" t="n">
-        <v>0</v>
-      </c>
-      <c r="F148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6399,15 +3690,6 @@
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
-      </c>
-      <c r="D149" t="n">
-        <v>0</v>
-      </c>
-      <c r="E149" t="n">
-        <v>0</v>
-      </c>
-      <c r="F149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6416,78 +3698,42 @@
         <v>0</v>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
-      </c>
-      <c r="D150" t="n">
-        <v>0</v>
-      </c>
-      <c r="E150" t="n">
-        <v>0</v>
-      </c>
-      <c r="F150" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
-      </c>
-      <c r="D151" t="n">
-        <v>0</v>
-      </c>
-      <c r="E151" t="n">
-        <v>0</v>
-      </c>
-      <c r="F151" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B152" t="n">
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
-      </c>
-      <c r="D152" t="n">
-        <v>0</v>
-      </c>
-      <c r="E152" t="n">
-        <v>1</v>
-      </c>
-      <c r="F152" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B153" t="n">
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
-      </c>
-      <c r="D153" t="n">
-        <v>1</v>
-      </c>
-      <c r="E153" t="n">
-        <v>0</v>
-      </c>
-      <c r="F153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6499,16 +3745,7 @@
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
-      </c>
-      <c r="D154" t="n">
-        <v>1</v>
-      </c>
-      <c r="E154" t="n">
-        <v>0</v>
-      </c>
-      <c r="F154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -6521,15 +3758,6 @@
       <c r="C155" t="n">
         <v>0</v>
       </c>
-      <c r="D155" t="n">
-        <v>0</v>
-      </c>
-      <c r="E155" t="n">
-        <v>0</v>
-      </c>
-      <c r="F155" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -6541,53 +3769,26 @@
       <c r="C156" t="n">
         <v>0</v>
       </c>
-      <c r="D156" t="n">
-        <v>0</v>
-      </c>
-      <c r="E156" t="n">
-        <v>0</v>
-      </c>
-      <c r="F156" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B157" t="n">
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
-      </c>
-      <c r="D157" t="n">
-        <v>0</v>
-      </c>
-      <c r="E157" t="n">
-        <v>1</v>
-      </c>
-      <c r="F157" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
-      </c>
-      <c r="D158" t="n">
-        <v>0</v>
-      </c>
-      <c r="E158" t="n">
-        <v>0</v>
-      </c>
-      <c r="F158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6596,59 +3797,32 @@
         <v>0</v>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
-      </c>
-      <c r="D159" t="n">
-        <v>0</v>
-      </c>
-      <c r="E159" t="n">
-        <v>0</v>
-      </c>
-      <c r="F159" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
-      </c>
-      <c r="D160" t="n">
-        <v>0</v>
-      </c>
-      <c r="E160" t="n">
-        <v>0</v>
-      </c>
-      <c r="F160" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B161" t="n">
         <v>0</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
-      </c>
-      <c r="D161" t="n">
-        <v>0</v>
-      </c>
-      <c r="E161" t="n">
-        <v>0</v>
-      </c>
-      <c r="F161" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -6656,58 +3830,31 @@
         <v>0</v>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
-      </c>
-      <c r="D162" t="n">
-        <v>1</v>
-      </c>
-      <c r="E162" t="n">
-        <v>0</v>
-      </c>
-      <c r="F162" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B163" t="n">
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
-      </c>
-      <c r="D163" t="n">
-        <v>0</v>
-      </c>
-      <c r="E163" t="n">
-        <v>1</v>
-      </c>
-      <c r="F163" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
-      </c>
-      <c r="D164" t="n">
-        <v>0</v>
-      </c>
-      <c r="E164" t="n">
-        <v>0</v>
-      </c>
-      <c r="F164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6716,19 +3863,10 @@
         <v>0</v>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
-      </c>
-      <c r="D165" t="n">
-        <v>0</v>
-      </c>
-      <c r="E165" t="n">
-        <v>0</v>
-      </c>
-      <c r="F165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -6741,114 +3879,60 @@
       <c r="C166" t="n">
         <v>0</v>
       </c>
-      <c r="D166" t="n">
-        <v>0</v>
-      </c>
-      <c r="E166" t="n">
-        <v>0</v>
-      </c>
-      <c r="F166" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
         <v>0</v>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0</v>
-      </c>
-      <c r="E167" t="n">
-        <v>1</v>
-      </c>
-      <c r="F167" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
-      </c>
-      <c r="D168" t="n">
-        <v>0</v>
-      </c>
-      <c r="E168" t="n">
-        <v>0</v>
-      </c>
-      <c r="F168" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
-      </c>
-      <c r="D169" t="n">
-        <v>0</v>
-      </c>
-      <c r="E169" t="n">
-        <v>0</v>
-      </c>
-      <c r="F169" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B170" t="n">
         <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0</v>
-      </c>
-      <c r="E170" t="n">
-        <v>0</v>
-      </c>
-      <c r="F170" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B171" t="n">
         <v>0</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
-      </c>
-      <c r="D171" t="n">
-        <v>0</v>
-      </c>
-      <c r="E171" t="n">
-        <v>0</v>
-      </c>
-      <c r="F171" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -6861,15 +3945,6 @@
       <c r="C172" t="n">
         <v>1</v>
       </c>
-      <c r="D172" t="n">
-        <v>0</v>
-      </c>
-      <c r="E172" t="n">
-        <v>0</v>
-      </c>
-      <c r="F172" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -6881,53 +3956,26 @@
       <c r="C173" t="n">
         <v>0</v>
       </c>
-      <c r="D173" t="n">
-        <v>0</v>
-      </c>
-      <c r="E173" t="n">
-        <v>0</v>
-      </c>
-      <c r="F173" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B174" t="n">
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
-      </c>
-      <c r="D174" t="n">
-        <v>0</v>
-      </c>
-      <c r="E174" t="n">
-        <v>0</v>
-      </c>
-      <c r="F174" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
-      </c>
-      <c r="D175" t="n">
-        <v>0</v>
-      </c>
-      <c r="E175" t="n">
-        <v>0</v>
-      </c>
-      <c r="F175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6941,53 +3989,26 @@
       <c r="C176" t="n">
         <v>0</v>
       </c>
-      <c r="D176" t="n">
-        <v>0</v>
-      </c>
-      <c r="E176" t="n">
-        <v>0</v>
-      </c>
-      <c r="F176" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B177" t="n">
         <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
-      </c>
-      <c r="D177" t="n">
-        <v>0</v>
-      </c>
-      <c r="E177" t="n">
-        <v>0</v>
-      </c>
-      <c r="F177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
-      </c>
-      <c r="D178" t="n">
-        <v>0</v>
-      </c>
-      <c r="E178" t="n">
-        <v>0</v>
-      </c>
-      <c r="F178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7001,53 +4022,26 @@
       <c r="C179" t="n">
         <v>1</v>
       </c>
-      <c r="D179" t="n">
-        <v>0</v>
-      </c>
-      <c r="E179" t="n">
-        <v>0</v>
-      </c>
-      <c r="F179" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
         <v>0</v>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
-      </c>
-      <c r="D180" t="n">
-        <v>0</v>
-      </c>
-      <c r="E180" t="n">
-        <v>0</v>
-      </c>
-      <c r="F180" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
-      </c>
-      <c r="D181" t="n">
-        <v>0</v>
-      </c>
-      <c r="E181" t="n">
-        <v>0</v>
-      </c>
-      <c r="F181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7056,38 +4050,20 @@
         <v>0</v>
       </c>
       <c r="B182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
-      </c>
-      <c r="D182" t="n">
-        <v>0</v>
-      </c>
-      <c r="E182" t="n">
-        <v>0</v>
-      </c>
-      <c r="F182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B183" t="n">
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0</v>
-      </c>
-      <c r="E183" t="n">
-        <v>0</v>
-      </c>
-      <c r="F183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7101,33 +4077,15 @@
       <c r="C184" t="n">
         <v>0</v>
       </c>
-      <c r="D184" t="n">
-        <v>0</v>
-      </c>
-      <c r="E184" t="n">
-        <v>0</v>
-      </c>
-      <c r="F184" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
-      </c>
-      <c r="D185" t="n">
-        <v>0</v>
-      </c>
-      <c r="E185" t="n">
-        <v>0</v>
-      </c>
-      <c r="F185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7139,36 +4097,18 @@
         <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
-      </c>
-      <c r="D186" t="n">
-        <v>1</v>
-      </c>
-      <c r="E186" t="n">
-        <v>0</v>
-      </c>
-      <c r="F186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B187" t="n">
         <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
-      </c>
-      <c r="D187" t="n">
-        <v>0</v>
-      </c>
-      <c r="E187" t="n">
-        <v>0</v>
-      </c>
-      <c r="F187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -7179,16 +4119,7 @@
         <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
-      </c>
-      <c r="D188" t="n">
-        <v>0</v>
-      </c>
-      <c r="E188" t="n">
-        <v>1</v>
-      </c>
-      <c r="F188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -7196,58 +4127,31 @@
         <v>0</v>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
-      </c>
-      <c r="D189" t="n">
-        <v>0</v>
-      </c>
-      <c r="E189" t="n">
-        <v>0</v>
-      </c>
-      <c r="F189" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
-      </c>
-      <c r="D190" t="n">
-        <v>0</v>
-      </c>
-      <c r="E190" t="n">
-        <v>0</v>
-      </c>
-      <c r="F190" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B191" t="n">
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
-      </c>
-      <c r="D191" t="n">
-        <v>1</v>
-      </c>
-      <c r="E191" t="n">
-        <v>0</v>
-      </c>
-      <c r="F191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7256,99 +4160,54 @@
         <v>0</v>
       </c>
       <c r="B192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
-      </c>
-      <c r="D192" t="n">
-        <v>0</v>
-      </c>
-      <c r="E192" t="n">
-        <v>1</v>
-      </c>
-      <c r="F192" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B193" t="n">
         <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>1</v>
-      </c>
-      <c r="D193" t="n">
-        <v>0</v>
-      </c>
-      <c r="E193" t="n">
-        <v>0</v>
-      </c>
-      <c r="F193" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B194" t="n">
         <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
-      </c>
-      <c r="D194" t="n">
-        <v>0</v>
-      </c>
-      <c r="E194" t="n">
-        <v>0</v>
-      </c>
-      <c r="F194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
-      </c>
-      <c r="D195" t="n">
-        <v>0</v>
-      </c>
-      <c r="E195" t="n">
-        <v>0</v>
-      </c>
-      <c r="F195" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B196" t="n">
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
-      </c>
-      <c r="D196" t="n">
-        <v>0</v>
-      </c>
-      <c r="E196" t="n">
-        <v>0</v>
-      </c>
-      <c r="F196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -7359,96 +4218,51 @@
         <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
-      </c>
-      <c r="D197" t="n">
-        <v>0</v>
-      </c>
-      <c r="E197" t="n">
-        <v>1</v>
-      </c>
-      <c r="F197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B198" t="n">
         <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
-      </c>
-      <c r="D198" t="n">
-        <v>0</v>
-      </c>
-      <c r="E198" t="n">
-        <v>0</v>
-      </c>
-      <c r="F198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B199" t="n">
         <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>1</v>
-      </c>
-      <c r="D199" t="n">
-        <v>0</v>
-      </c>
-      <c r="E199" t="n">
-        <v>0</v>
-      </c>
-      <c r="F199" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B200" t="n">
         <v>0</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
-      </c>
-      <c r="D200" t="n">
-        <v>0</v>
-      </c>
-      <c r="E200" t="n">
-        <v>0</v>
-      </c>
-      <c r="F200" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B201" t="n">
         <v>0</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
-      </c>
-      <c r="D201" t="n">
-        <v>0</v>
-      </c>
-      <c r="E201" t="n">
-        <v>0</v>
-      </c>
-      <c r="F201" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -7461,133 +4275,70 @@
       <c r="C202" t="n">
         <v>0</v>
       </c>
-      <c r="D202" t="n">
-        <v>0</v>
-      </c>
-      <c r="E202" t="n">
-        <v>0</v>
-      </c>
-      <c r="F202" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B203" t="n">
         <v>0</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
-      </c>
-      <c r="D203" t="n">
-        <v>0</v>
-      </c>
-      <c r="E203" t="n">
-        <v>0</v>
-      </c>
-      <c r="F203" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B204" t="n">
         <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>1</v>
-      </c>
-      <c r="D204" t="n">
-        <v>0</v>
-      </c>
-      <c r="E204" t="n">
-        <v>0</v>
-      </c>
-      <c r="F204" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B205" t="n">
         <v>0</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
-      </c>
-      <c r="D205" t="n">
-        <v>0</v>
-      </c>
-      <c r="E205" t="n">
-        <v>0</v>
-      </c>
-      <c r="F205" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B206" t="n">
         <v>0</v>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
-      </c>
-      <c r="D206" t="n">
-        <v>0</v>
-      </c>
-      <c r="E206" t="n">
-        <v>0</v>
-      </c>
-      <c r="F206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
-      </c>
-      <c r="D207" t="n">
-        <v>0</v>
-      </c>
-      <c r="E207" t="n">
-        <v>0</v>
-      </c>
-      <c r="F207" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B208" t="n">
         <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
-      </c>
-      <c r="D208" t="n">
-        <v>1</v>
-      </c>
-      <c r="E208" t="n">
-        <v>0</v>
-      </c>
-      <c r="F208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7596,19 +4347,10 @@
         <v>0</v>
       </c>
       <c r="B209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
-      </c>
-      <c r="D209" t="n">
-        <v>0</v>
-      </c>
-      <c r="E209" t="n">
-        <v>0</v>
-      </c>
-      <c r="F209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -7619,35 +4361,17 @@
         <v>0</v>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
-      </c>
-      <c r="D210" t="n">
-        <v>1</v>
-      </c>
-      <c r="E210" t="n">
-        <v>0</v>
-      </c>
-      <c r="F210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
-      </c>
-      <c r="D211" t="n">
-        <v>0</v>
-      </c>
-      <c r="E211" t="n">
-        <v>0</v>
-      </c>
-      <c r="F211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7656,58 +4380,31 @@
         <v>0</v>
       </c>
       <c r="B212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
-      </c>
-      <c r="D212" t="n">
-        <v>0</v>
-      </c>
-      <c r="E212" t="n">
-        <v>1</v>
-      </c>
-      <c r="F212" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
-      </c>
-      <c r="D213" t="n">
-        <v>0</v>
-      </c>
-      <c r="E213" t="n">
-        <v>0</v>
-      </c>
-      <c r="F213" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B214" t="n">
         <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
-      </c>
-      <c r="D214" t="n">
-        <v>1</v>
-      </c>
-      <c r="E214" t="n">
-        <v>0</v>
-      </c>
-      <c r="F214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7721,33 +4418,15 @@
       <c r="C215" t="n">
         <v>0</v>
       </c>
-      <c r="D215" t="n">
-        <v>0</v>
-      </c>
-      <c r="E215" t="n">
-        <v>0</v>
-      </c>
-      <c r="F215" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
-      </c>
-      <c r="D216" t="n">
-        <v>0</v>
-      </c>
-      <c r="E216" t="n">
-        <v>0</v>
-      </c>
-      <c r="F216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7756,18 +4435,9 @@
         <v>0</v>
       </c>
       <c r="B217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C217" t="n">
-        <v>1</v>
-      </c>
-      <c r="D217" t="n">
-        <v>0</v>
-      </c>
-      <c r="E217" t="n">
-        <v>0</v>
-      </c>
-      <c r="F217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7776,19 +4446,10 @@
         <v>0</v>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
-      </c>
-      <c r="D218" t="n">
-        <v>0</v>
-      </c>
-      <c r="E218" t="n">
-        <v>0</v>
-      </c>
-      <c r="F218" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -7796,19 +4457,10 @@
         <v>0</v>
       </c>
       <c r="B219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
-      </c>
-      <c r="D219" t="n">
-        <v>0</v>
-      </c>
-      <c r="E219" t="n">
-        <v>0</v>
-      </c>
-      <c r="F219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -7816,19 +4468,10 @@
         <v>0</v>
       </c>
       <c r="B220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
-      </c>
-      <c r="D220" t="n">
-        <v>0</v>
-      </c>
-      <c r="E220" t="n">
-        <v>0</v>
-      </c>
-      <c r="F220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -7836,59 +4479,32 @@
         <v>0</v>
       </c>
       <c r="B221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C221" t="n">
-        <v>0</v>
-      </c>
-      <c r="D221" t="n">
-        <v>1</v>
-      </c>
-      <c r="E221" t="n">
-        <v>0</v>
-      </c>
-      <c r="F221" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B222" t="n">
         <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>1</v>
-      </c>
-      <c r="D222" t="n">
-        <v>0</v>
-      </c>
-      <c r="E222" t="n">
-        <v>0</v>
-      </c>
-      <c r="F222" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B223" t="n">
         <v>0</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
-      </c>
-      <c r="D223" t="n">
-        <v>0</v>
-      </c>
-      <c r="E223" t="n">
-        <v>0</v>
-      </c>
-      <c r="F223" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -7896,18 +4512,9 @@
         <v>0</v>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224" t="n">
-        <v>1</v>
-      </c>
-      <c r="D224" t="n">
-        <v>0</v>
-      </c>
-      <c r="E224" t="n">
-        <v>0</v>
-      </c>
-      <c r="F224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7921,15 +4528,6 @@
       <c r="C225" t="n">
         <v>1</v>
       </c>
-      <c r="D225" t="n">
-        <v>0</v>
-      </c>
-      <c r="E225" t="n">
-        <v>0</v>
-      </c>
-      <c r="F225" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -7939,16 +4537,7 @@
         <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
-      </c>
-      <c r="D226" t="n">
-        <v>0</v>
-      </c>
-      <c r="E226" t="n">
-        <v>1</v>
-      </c>
-      <c r="F226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -7959,16 +4548,7 @@
         <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
-      </c>
-      <c r="D227" t="n">
-        <v>1</v>
-      </c>
-      <c r="E227" t="n">
-        <v>0</v>
-      </c>
-      <c r="F227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -7981,53 +4561,26 @@
       <c r="C228" t="n">
         <v>0</v>
       </c>
-      <c r="D228" t="n">
-        <v>0</v>
-      </c>
-      <c r="E228" t="n">
-        <v>0</v>
-      </c>
-      <c r="F228" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
         <v>0</v>
       </c>
       <c r="B229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
-      </c>
-      <c r="D229" t="n">
-        <v>0</v>
-      </c>
-      <c r="E229" t="n">
-        <v>0</v>
-      </c>
-      <c r="F229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B230" t="n">
         <v>0</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
-      </c>
-      <c r="D230" t="n">
-        <v>1</v>
-      </c>
-      <c r="E230" t="n">
-        <v>0</v>
-      </c>
-      <c r="F230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8039,15 +4592,6 @@
         <v>0</v>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
-      </c>
-      <c r="D231" t="n">
-        <v>0</v>
-      </c>
-      <c r="E231" t="n">
-        <v>0</v>
-      </c>
-      <c r="F231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8061,34 +4605,16 @@
       <c r="C232" t="n">
         <v>0</v>
       </c>
-      <c r="D232" t="n">
-        <v>0</v>
-      </c>
-      <c r="E232" t="n">
-        <v>0</v>
-      </c>
-      <c r="F232" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B233" t="n">
         <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
-      </c>
-      <c r="D233" t="n">
-        <v>0</v>
-      </c>
-      <c r="E233" t="n">
-        <v>0</v>
-      </c>
-      <c r="F233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -8099,15 +4625,6 @@
         <v>0</v>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
-      </c>
-      <c r="D234" t="n">
-        <v>0</v>
-      </c>
-      <c r="E234" t="n">
-        <v>0</v>
-      </c>
-      <c r="F234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8119,16 +4636,7 @@
         <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
-      </c>
-      <c r="D235" t="n">
-        <v>0</v>
-      </c>
-      <c r="E235" t="n">
-        <v>1</v>
-      </c>
-      <c r="F235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -8136,39 +4644,21 @@
         <v>0</v>
       </c>
       <c r="B236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C236" t="n">
-        <v>0</v>
-      </c>
-      <c r="D236" t="n">
-        <v>1</v>
-      </c>
-      <c r="E236" t="n">
-        <v>0</v>
-      </c>
-      <c r="F236" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B237" t="n">
         <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
-      </c>
-      <c r="D237" t="n">
-        <v>0</v>
-      </c>
-      <c r="E237" t="n">
-        <v>0</v>
-      </c>
-      <c r="F237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -8181,53 +4671,26 @@
       <c r="C238" t="n">
         <v>0</v>
       </c>
-      <c r="D238" t="n">
-        <v>0</v>
-      </c>
-      <c r="E238" t="n">
-        <v>0</v>
-      </c>
-      <c r="F238" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B239" t="n">
         <v>0</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
-      </c>
-      <c r="D239" t="n">
-        <v>0</v>
-      </c>
-      <c r="E239" t="n">
-        <v>0</v>
-      </c>
-      <c r="F239" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B240" t="n">
         <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
-      </c>
-      <c r="D240" t="n">
-        <v>0</v>
-      </c>
-      <c r="E240" t="n">
-        <v>1</v>
-      </c>
-      <c r="F240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8241,33 +4704,15 @@
       <c r="C241" t="n">
         <v>0</v>
       </c>
-      <c r="D241" t="n">
-        <v>0</v>
-      </c>
-      <c r="E241" t="n">
-        <v>0</v>
-      </c>
-      <c r="F241" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
         <v>0</v>
       </c>
       <c r="B242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C242" t="n">
-        <v>0</v>
-      </c>
-      <c r="D242" t="n">
-        <v>0</v>
-      </c>
-      <c r="E242" t="n">
-        <v>1</v>
-      </c>
-      <c r="F242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8281,33 +4726,15 @@
       <c r="C243" t="n">
         <v>0</v>
       </c>
-      <c r="D243" t="n">
-        <v>0</v>
-      </c>
-      <c r="E243" t="n">
-        <v>0</v>
-      </c>
-      <c r="F243" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B244" t="n">
         <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
-      </c>
-      <c r="D244" t="n">
-        <v>1</v>
-      </c>
-      <c r="E244" t="n">
-        <v>0</v>
-      </c>
-      <c r="F244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8316,18 +4743,9 @@
         <v>0</v>
       </c>
       <c r="B245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C245" t="n">
-        <v>1</v>
-      </c>
-      <c r="D245" t="n">
-        <v>0</v>
-      </c>
-      <c r="E245" t="n">
-        <v>0</v>
-      </c>
-      <c r="F245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8336,19 +4754,10 @@
         <v>0</v>
       </c>
       <c r="B246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>0</v>
-      </c>
-      <c r="D246" t="n">
-        <v>0</v>
-      </c>
-      <c r="E246" t="n">
-        <v>0</v>
-      </c>
-      <c r="F246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -8359,16 +4768,7 @@
         <v>0</v>
       </c>
       <c r="C247" t="n">
-        <v>0</v>
-      </c>
-      <c r="D247" t="n">
-        <v>0</v>
-      </c>
-      <c r="E247" t="n">
-        <v>1</v>
-      </c>
-      <c r="F247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -8381,74 +4781,38 @@
       <c r="C248" t="n">
         <v>0</v>
       </c>
-      <c r="D248" t="n">
-        <v>0</v>
-      </c>
-      <c r="E248" t="n">
-        <v>0</v>
-      </c>
-      <c r="F248" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
         <v>0</v>
       </c>
       <c r="B249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
-      </c>
-      <c r="D249" t="n">
-        <v>0</v>
-      </c>
-      <c r="E249" t="n">
-        <v>1</v>
-      </c>
-      <c r="F249" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B250" t="n">
         <v>0</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
-      </c>
-      <c r="D250" t="n">
-        <v>0</v>
-      </c>
-      <c r="E250" t="n">
-        <v>0</v>
-      </c>
-      <c r="F250" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B251" t="n">
         <v>0</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
-      </c>
-      <c r="D251" t="n">
-        <v>0</v>
-      </c>
-      <c r="E251" t="n">
-        <v>0</v>
-      </c>
-      <c r="F251" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/test_data2/true_cols.xlsx
+++ b/test_data2/true_cols.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">V1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t xml:space="preserve">V3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V5</t>
   </si>
 </sst>
 </file>
@@ -364,6 +370,12 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -375,15 +387,27 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -395,6 +419,12 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -408,16 +438,28 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -425,10 +467,16 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -439,6 +487,12 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -447,31 +501,49 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -485,16 +557,28 @@
       <c r="C12" t="n">
         <v>0</v>
       </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -507,16 +591,28 @@
       <c r="C14" t="n">
         <v>0</v>
       </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -529,48 +625,78 @@
       <c r="C16" t="n">
         <v>0</v>
       </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -579,31 +705,49 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -617,15 +761,27 @@
       <c r="C24" t="n">
         <v>0</v>
       </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -634,20 +790,32 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
       <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -656,32 +824,50 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -694,15 +880,27 @@
       <c r="C31" t="n">
         <v>0</v>
       </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -714,17 +912,29 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -738,16 +948,28 @@
       <c r="C35" t="n">
         <v>0</v>
       </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -760,59 +982,95 @@
       <c r="C37" t="n">
         <v>0</v>
       </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -826,26 +1084,44 @@
       <c r="C43" t="n">
         <v>0</v>
       </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
       <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -859,6 +1135,12 @@
       <c r="C46" t="n">
         <v>0</v>
       </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -870,6 +1152,12 @@
       <c r="C47" t="n">
         <v>1</v>
       </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -881,15 +1169,27 @@
       <c r="C48" t="n">
         <v>0</v>
       </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -898,31 +1198,49 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
       </c>
       <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -936,37 +1254,61 @@
       <c r="C53" t="n">
         <v>0</v>
       </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -975,31 +1317,49 @@
         <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1013,15 +1373,27 @@
       <c r="C60" t="n">
         <v>0</v>
       </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
       <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1030,10 +1402,16 @@
         <v>0</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1041,10 +1419,16 @@
         <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1057,6 +1441,12 @@
       <c r="C64" t="n">
         <v>0</v>
       </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1066,50 +1456,80 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1118,10 +1538,16 @@
         <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1134,6 +1560,12 @@
       <c r="C71" t="n">
         <v>0</v>
       </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1145,16 +1577,28 @@
       <c r="C72" t="n">
         <v>0</v>
       </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1167,26 +1611,44 @@
       <c r="C74" t="n">
         <v>0</v>
       </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1200,26 +1662,44 @@
       <c r="C77" t="n">
         <v>1</v>
       </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>0</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1233,6 +1713,12 @@
       <c r="C80" t="n">
         <v>0</v>
       </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1242,18 +1728,30 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -1261,9 +1759,15 @@
         <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1277,27 +1781,45 @@
       <c r="C84" t="n">
         <v>0</v>
       </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -1308,17 +1830,29 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1</v>
+      </c>
+      <c r="E88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1332,16 +1866,28 @@
       <c r="C89" t="n">
         <v>0</v>
       </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>0</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1349,9 +1895,15 @@
         <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1</v>
+      </c>
+      <c r="E91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1365,26 +1917,44 @@
       <c r="C92" t="n">
         <v>1</v>
       </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
       <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1398,27 +1968,45 @@
       <c r="C95" t="n">
         <v>0</v>
       </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -1429,17 +2017,29 @@
         <v>0</v>
       </c>
       <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
       </c>
       <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,21 +2048,883 @@
         <v>0</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>1</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>1</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>1</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1489,15 +2951,27 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1511,37 +2985,61 @@
       <c r="C3" t="n">
         <v>0</v>
       </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1555,59 +3053,95 @@
       <c r="C7" t="n">
         <v>0</v>
       </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1621,37 +3155,61 @@
       <c r="C13" t="n">
         <v>1</v>
       </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1665,6 +3223,12 @@
       <c r="C17" t="n">
         <v>0</v>
       </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1674,6 +3238,12 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1682,10 +3252,16 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1693,32 +3269,50 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1731,15 +3325,27 @@
       <c r="C23" t="n">
         <v>0</v>
       </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1753,6 +3359,12 @@
       <c r="C25" t="n">
         <v>0</v>
       </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1764,6 +3376,12 @@
       <c r="C26" t="n">
         <v>1</v>
       </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1773,6 +3391,12 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1786,15 +3410,27 @@
       <c r="C28" t="n">
         <v>1</v>
       </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1808,16 +3444,28 @@
       <c r="C30" t="n">
         <v>0</v>
       </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1828,7 +3476,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1836,20 +3490,32 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1861,6 +3527,12 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1874,15 +3546,27 @@
       <c r="C36" t="n">
         <v>0</v>
       </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1891,32 +3575,50 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1929,6 +3631,12 @@
       <c r="C41" t="n">
         <v>0</v>
       </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1938,39 +3646,63 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
       <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1984,16 +3716,28 @@
       <c r="C46" t="n">
         <v>0</v>
       </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2006,38 +3750,1762 @@
       <c r="C48" t="n">
         <v>0</v>
       </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>1</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>1</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>1</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>1</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2064,15 +5532,27 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2084,29 +5564,47 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2117,17 +5615,29 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2136,9 +5646,15 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2147,9 +5663,15 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2161,17 +5683,29 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2185,16 +5719,28 @@
       <c r="C12" t="n">
         <v>0</v>
       </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2205,17 +5751,29 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2224,10 +5782,16 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2235,10 +5799,16 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -2249,17 +5819,29 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2273,15 +5855,27 @@
       <c r="C20" t="n">
         <v>1</v>
       </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2293,7 +5887,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2306,26 +5906,44 @@
       <c r="C23" t="n">
         <v>0</v>
       </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2334,32 +5952,50 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -2370,28 +6006,46 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2405,6 +6059,12 @@
       <c r="C32" t="n">
         <v>1</v>
       </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2416,6 +6076,12 @@
       <c r="C33" t="n">
         <v>0</v>
       </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2425,28 +6091,46 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2455,9 +6139,15 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2466,20 +6156,32 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,31 +6190,49 @@
         <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2526,6 +6246,12 @@
       <c r="C43" t="n">
         <v>0</v>
       </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2537,6 +6263,12 @@
       <c r="C44" t="n">
         <v>0</v>
       </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2548,16 +6280,28 @@
       <c r="C45" t="n">
         <v>1</v>
       </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2570,15 +6314,27 @@
       <c r="C47" t="n">
         <v>0</v>
       </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
       <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,26 +6348,44 @@
       <c r="C49" t="n">
         <v>0</v>
       </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2625,6 +6399,12 @@
       <c r="C52" t="n">
         <v>0</v>
       </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2636,15 +6416,27 @@
       <c r="C53" t="n">
         <v>0</v>
       </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2653,9 +6445,15 @@
         <v>0</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2669,60 +6467,96 @@
       <c r="C56" t="n">
         <v>0</v>
       </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2730,10 +6564,16 @@
         <v>0</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2746,6 +6586,12 @@
       <c r="C63" t="n">
         <v>1</v>
       </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2757,26 +6603,44 @@
       <c r="C64" t="n">
         <v>0</v>
       </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>0</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2785,10 +6649,16 @@
         <v>0</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2796,31 +6666,49 @@
         <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2834,26 +6722,44 @@
       <c r="C71" t="n">
         <v>0</v>
       </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>0</v>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2867,114 +6773,180 @@
       <c r="C74" t="n">
         <v>0</v>
       </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
       </c>
       <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1</v>
+      </c>
+      <c r="E80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B83" t="n">
         <v>0</v>
       </c>
       <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
       <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2983,10 +6955,16 @@
         <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2999,15 +6977,27 @@
       <c r="C86" t="n">
         <v>0</v>
       </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3016,9 +7006,15 @@
         <v>0</v>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3027,75 +7023,117 @@
         <v>0</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
       <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
       </c>
       <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3109,6 +7147,12 @@
       <c r="C96" t="n">
         <v>0</v>
       </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -3120,6 +7164,12 @@
       <c r="C97" t="n">
         <v>0</v>
       </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -3131,26 +7181,44 @@
       <c r="C98" t="n">
         <v>0</v>
       </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>0</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,49 +7232,79 @@
       <c r="C101" t="n">
         <v>0</v>
       </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
       </c>
       <c r="C103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -3217,6 +7315,12 @@
         <v>0</v>
       </c>
       <c r="C106" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3225,10 +7329,16 @@
         <v>0</v>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -3236,54 +7346,84 @@
         <v>0</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -3296,16 +7436,28 @@
       <c r="C113" t="n">
         <v>0</v>
       </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>0</v>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -3316,7 +7468,13 @@
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -3324,9 +7482,15 @@
         <v>0</v>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3340,6 +7504,12 @@
       <c r="C117" t="n">
         <v>0</v>
       </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -3349,7 +7519,13 @@
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -3362,16 +7538,28 @@
       <c r="C119" t="n">
         <v>1</v>
       </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>0</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -3379,20 +7567,32 @@
         <v>0</v>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
       </c>
       <c r="C122" t="n">
+        <v>0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1</v>
+      </c>
+      <c r="E122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3406,15 +7606,27 @@
       <c r="C123" t="n">
         <v>1</v>
       </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
         <v>0</v>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124" t="n">
+        <v>0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3423,20 +7635,32 @@
         <v>0</v>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126" t="n">
+        <v>0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,26 +7674,44 @@
       <c r="C127" t="n">
         <v>0</v>
       </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
         <v>0</v>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
       </c>
       <c r="C129" t="n">
+        <v>0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1</v>
+      </c>
+      <c r="E129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3483,6 +7725,12 @@
       <c r="C130" t="n">
         <v>1</v>
       </c>
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -3494,6 +7742,12 @@
       <c r="C131" t="n">
         <v>0</v>
       </c>
+      <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3505,6 +7759,12 @@
       <c r="C132" t="n">
         <v>0</v>
       </c>
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -3516,49 +7776,79 @@
       <c r="C133" t="n">
         <v>0</v>
       </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
       </c>
       <c r="C134" t="n">
+        <v>0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1</v>
+      </c>
+      <c r="E134" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
+        <v>0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -3571,16 +7861,28 @@
       <c r="C138" t="n">
         <v>0</v>
       </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -3591,7 +7893,13 @@
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -3599,53 +7907,83 @@
         <v>0</v>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B142" t="n">
         <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B143" t="n">
         <v>0</v>
       </c>
       <c r="C143" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145" t="n">
+        <v>0</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0</v>
+      </c>
+      <c r="E145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3654,32 +7992,50 @@
         <v>0</v>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146" t="n">
+        <v>1</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147" t="n">
+        <v>0</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0</v>
+      </c>
+      <c r="E147" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B148" t="n">
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -3692,15 +8048,27 @@
       <c r="C149" t="n">
         <v>1</v>
       </c>
+      <c r="D149" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
         <v>0</v>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" t="n">
+        <v>1</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3714,1104 +8082,10 @@
       <c r="C151" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>1</v>
-      </c>
-      <c r="B152" t="n">
-        <v>0</v>
-      </c>
-      <c r="C152" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>1</v>
-      </c>
-      <c r="B153" t="n">
-        <v>0</v>
-      </c>
-      <c r="C153" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>0</v>
-      </c>
-      <c r="B154" t="n">
-        <v>0</v>
-      </c>
-      <c r="C154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>1</v>
-      </c>
-      <c r="B155" t="n">
-        <v>0</v>
-      </c>
-      <c r="C155" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>0</v>
-      </c>
-      <c r="B156" t="n">
-        <v>1</v>
-      </c>
-      <c r="C156" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>1</v>
-      </c>
-      <c r="B157" t="n">
-        <v>0</v>
-      </c>
-      <c r="C157" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>0</v>
-      </c>
-      <c r="B158" t="n">
-        <v>1</v>
-      </c>
-      <c r="C158" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>0</v>
-      </c>
-      <c r="B159" t="n">
-        <v>1</v>
-      </c>
-      <c r="C159" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>0</v>
-      </c>
-      <c r="B160" t="n">
-        <v>1</v>
-      </c>
-      <c r="C160" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>1</v>
-      </c>
-      <c r="B161" t="n">
-        <v>0</v>
-      </c>
-      <c r="C161" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>0</v>
-      </c>
-      <c r="B162" t="n">
-        <v>1</v>
-      </c>
-      <c r="C162" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>1</v>
-      </c>
-      <c r="B163" t="n">
-        <v>0</v>
-      </c>
-      <c r="C163" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>0</v>
-      </c>
-      <c r="B164" t="n">
-        <v>1</v>
-      </c>
-      <c r="C164" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>0</v>
-      </c>
-      <c r="B165" t="n">
-        <v>0</v>
-      </c>
-      <c r="C165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>1</v>
-      </c>
-      <c r="B166" t="n">
-        <v>0</v>
-      </c>
-      <c r="C166" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>0</v>
-      </c>
-      <c r="B167" t="n">
-        <v>1</v>
-      </c>
-      <c r="C167" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>0</v>
-      </c>
-      <c r="B168" t="n">
-        <v>1</v>
-      </c>
-      <c r="C168" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>0</v>
-      </c>
-      <c r="B169" t="n">
-        <v>1</v>
-      </c>
-      <c r="C169" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>1</v>
-      </c>
-      <c r="B170" t="n">
-        <v>0</v>
-      </c>
-      <c r="C170" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>1</v>
-      </c>
-      <c r="B171" t="n">
-        <v>0</v>
-      </c>
-      <c r="C171" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>0</v>
-      </c>
-      <c r="B172" t="n">
-        <v>0</v>
-      </c>
-      <c r="C172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>0</v>
-      </c>
-      <c r="B173" t="n">
-        <v>1</v>
-      </c>
-      <c r="C173" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>1</v>
-      </c>
-      <c r="B174" t="n">
-        <v>0</v>
-      </c>
-      <c r="C174" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>0</v>
-      </c>
-      <c r="B175" t="n">
-        <v>1</v>
-      </c>
-      <c r="C175" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>1</v>
-      </c>
-      <c r="B176" t="n">
-        <v>0</v>
-      </c>
-      <c r="C176" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>0</v>
-      </c>
-      <c r="B177" t="n">
-        <v>0</v>
-      </c>
-      <c r="C177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>0</v>
-      </c>
-      <c r="B178" t="n">
-        <v>1</v>
-      </c>
-      <c r="C178" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>0</v>
-      </c>
-      <c r="B179" t="n">
-        <v>0</v>
-      </c>
-      <c r="C179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>0</v>
-      </c>
-      <c r="B180" t="n">
-        <v>1</v>
-      </c>
-      <c r="C180" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>0</v>
-      </c>
-      <c r="B181" t="n">
-        <v>1</v>
-      </c>
-      <c r="C181" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>0</v>
-      </c>
-      <c r="B182" t="n">
-        <v>0</v>
-      </c>
-      <c r="C182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>1</v>
-      </c>
-      <c r="B183" t="n">
-        <v>0</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>0</v>
-      </c>
-      <c r="B184" t="n">
-        <v>1</v>
-      </c>
-      <c r="C184" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>0</v>
-      </c>
-      <c r="B185" t="n">
-        <v>1</v>
-      </c>
-      <c r="C185" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>0</v>
-      </c>
-      <c r="B186" t="n">
-        <v>0</v>
-      </c>
-      <c r="C186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>0</v>
-      </c>
-      <c r="B187" t="n">
-        <v>0</v>
-      </c>
-      <c r="C187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>0</v>
-      </c>
-      <c r="B188" t="n">
-        <v>0</v>
-      </c>
-      <c r="C188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>0</v>
-      </c>
-      <c r="B189" t="n">
-        <v>1</v>
-      </c>
-      <c r="C189" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>0</v>
-      </c>
-      <c r="B190" t="n">
-        <v>1</v>
-      </c>
-      <c r="C190" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>1</v>
-      </c>
-      <c r="B191" t="n">
-        <v>0</v>
-      </c>
-      <c r="C191" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>0</v>
-      </c>
-      <c r="B192" t="n">
-        <v>1</v>
-      </c>
-      <c r="C192" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>1</v>
-      </c>
-      <c r="B193" t="n">
-        <v>0</v>
-      </c>
-      <c r="C193" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>0</v>
-      </c>
-      <c r="B194" t="n">
-        <v>0</v>
-      </c>
-      <c r="C194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>0</v>
-      </c>
-      <c r="B195" t="n">
-        <v>1</v>
-      </c>
-      <c r="C195" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>0</v>
-      </c>
-      <c r="B196" t="n">
-        <v>0</v>
-      </c>
-      <c r="C196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>0</v>
-      </c>
-      <c r="B197" t="n">
-        <v>0</v>
-      </c>
-      <c r="C197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>0</v>
-      </c>
-      <c r="B198" t="n">
-        <v>0</v>
-      </c>
-      <c r="C198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>1</v>
-      </c>
-      <c r="B199" t="n">
-        <v>0</v>
-      </c>
-      <c r="C199" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>1</v>
-      </c>
-      <c r="B200" t="n">
-        <v>0</v>
-      </c>
-      <c r="C200" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>1</v>
-      </c>
-      <c r="B201" t="n">
-        <v>0</v>
-      </c>
-      <c r="C201" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>1</v>
-      </c>
-      <c r="B202" t="n">
-        <v>0</v>
-      </c>
-      <c r="C202" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>1</v>
-      </c>
-      <c r="B203" t="n">
-        <v>0</v>
-      </c>
-      <c r="C203" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>1</v>
-      </c>
-      <c r="B204" t="n">
-        <v>0</v>
-      </c>
-      <c r="C204" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>1</v>
-      </c>
-      <c r="B205" t="n">
-        <v>0</v>
-      </c>
-      <c r="C205" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>0</v>
-      </c>
-      <c r="B206" t="n">
-        <v>0</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>0</v>
-      </c>
-      <c r="B207" t="n">
-        <v>1</v>
-      </c>
-      <c r="C207" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>1</v>
-      </c>
-      <c r="B208" t="n">
-        <v>0</v>
-      </c>
-      <c r="C208" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>0</v>
-      </c>
-      <c r="B209" t="n">
-        <v>0</v>
-      </c>
-      <c r="C209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>0</v>
-      </c>
-      <c r="B210" t="n">
-        <v>0</v>
-      </c>
-      <c r="C210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v>1</v>
-      </c>
-      <c r="B211" t="n">
-        <v>0</v>
-      </c>
-      <c r="C211" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>0</v>
-      </c>
-      <c r="B212" t="n">
-        <v>1</v>
-      </c>
-      <c r="C212" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>0</v>
-      </c>
-      <c r="B213" t="n">
-        <v>1</v>
-      </c>
-      <c r="C213" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>1</v>
-      </c>
-      <c r="B214" t="n">
-        <v>0</v>
-      </c>
-      <c r="C214" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>1</v>
-      </c>
-      <c r="B215" t="n">
-        <v>0</v>
-      </c>
-      <c r="C215" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>0</v>
-      </c>
-      <c r="B216" t="n">
-        <v>1</v>
-      </c>
-      <c r="C216" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>0</v>
-      </c>
-      <c r="B217" t="n">
-        <v>1</v>
-      </c>
-      <c r="C217" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>0</v>
-      </c>
-      <c r="B218" t="n">
-        <v>1</v>
-      </c>
-      <c r="C218" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>0</v>
-      </c>
-      <c r="B219" t="n">
-        <v>0</v>
-      </c>
-      <c r="C219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>0</v>
-      </c>
-      <c r="B220" t="n">
-        <v>0</v>
-      </c>
-      <c r="C220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="n">
-        <v>0</v>
-      </c>
-      <c r="B221" t="n">
-        <v>1</v>
-      </c>
-      <c r="C221" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
-        <v>1</v>
-      </c>
-      <c r="B222" t="n">
-        <v>0</v>
-      </c>
-      <c r="C222" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>1</v>
-      </c>
-      <c r="B223" t="n">
-        <v>0</v>
-      </c>
-      <c r="C223" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>0</v>
-      </c>
-      <c r="B224" t="n">
-        <v>1</v>
-      </c>
-      <c r="C224" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>0</v>
-      </c>
-      <c r="B225" t="n">
-        <v>0</v>
-      </c>
-      <c r="C225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="n">
-        <v>0</v>
-      </c>
-      <c r="B226" t="n">
-        <v>0</v>
-      </c>
-      <c r="C226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="n">
-        <v>0</v>
-      </c>
-      <c r="B227" t="n">
-        <v>0</v>
-      </c>
-      <c r="C227" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="n">
-        <v>0</v>
-      </c>
-      <c r="B228" t="n">
-        <v>1</v>
-      </c>
-      <c r="C228" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="n">
-        <v>0</v>
-      </c>
-      <c r="B229" t="n">
-        <v>0</v>
-      </c>
-      <c r="C229" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="n">
-        <v>1</v>
-      </c>
-      <c r="B230" t="n">
-        <v>0</v>
-      </c>
-      <c r="C230" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="n">
-        <v>0</v>
-      </c>
-      <c r="B231" t="n">
-        <v>0</v>
-      </c>
-      <c r="C231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="n">
-        <v>1</v>
-      </c>
-      <c r="B232" t="n">
-        <v>0</v>
-      </c>
-      <c r="C232" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="n">
-        <v>0</v>
-      </c>
-      <c r="B233" t="n">
-        <v>0</v>
-      </c>
-      <c r="C233" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
-        <v>0</v>
-      </c>
-      <c r="B234" t="n">
-        <v>0</v>
-      </c>
-      <c r="C234" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
-        <v>0</v>
-      </c>
-      <c r="B235" t="n">
-        <v>0</v>
-      </c>
-      <c r="C235" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
-        <v>0</v>
-      </c>
-      <c r="B236" t="n">
-        <v>1</v>
-      </c>
-      <c r="C236" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>0</v>
-      </c>
-      <c r="B237" t="n">
-        <v>0</v>
-      </c>
-      <c r="C237" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>1</v>
-      </c>
-      <c r="B238" t="n">
-        <v>0</v>
-      </c>
-      <c r="C238" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>1</v>
-      </c>
-      <c r="B239" t="n">
-        <v>0</v>
-      </c>
-      <c r="C239" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>1</v>
-      </c>
-      <c r="B240" t="n">
-        <v>0</v>
-      </c>
-      <c r="C240" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="n">
-        <v>1</v>
-      </c>
-      <c r="B241" t="n">
-        <v>0</v>
-      </c>
-      <c r="C241" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="n">
-        <v>0</v>
-      </c>
-      <c r="B242" t="n">
-        <v>1</v>
-      </c>
-      <c r="C242" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="n">
-        <v>1</v>
-      </c>
-      <c r="B243" t="n">
-        <v>0</v>
-      </c>
-      <c r="C243" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="n">
-        <v>1</v>
-      </c>
-      <c r="B244" t="n">
-        <v>0</v>
-      </c>
-      <c r="C244" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="n">
-        <v>0</v>
-      </c>
-      <c r="B245" t="n">
-        <v>1</v>
-      </c>
-      <c r="C245" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="n">
-        <v>0</v>
-      </c>
-      <c r="B246" t="n">
-        <v>0</v>
-      </c>
-      <c r="C246" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="n">
-        <v>0</v>
-      </c>
-      <c r="B247" t="n">
-        <v>0</v>
-      </c>
-      <c r="C247" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="n">
-        <v>0</v>
-      </c>
-      <c r="B248" t="n">
-        <v>1</v>
-      </c>
-      <c r="C248" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="n">
-        <v>0</v>
-      </c>
-      <c r="B249" t="n">
-        <v>1</v>
-      </c>
-      <c r="C249" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="n">
-        <v>1</v>
-      </c>
-      <c r="B250" t="n">
-        <v>0</v>
-      </c>
-      <c r="C250" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="n">
-        <v>1</v>
-      </c>
-      <c r="B251" t="n">
-        <v>0</v>
-      </c>
-      <c r="C251" t="n">
+      <c r="D151" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" t="n">
         <v>0</v>
       </c>
     </row>

--- a/test_data2/true_cols.xlsx
+++ b/test_data2/true_cols.xlsx
@@ -402,10 +402,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -419,24 +419,24 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -447,7 +447,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -459,7 +459,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -490,10 +490,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -507,10 +507,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -538,13 +538,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -637,10 +637,10 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -663,15 +663,15 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -694,15 +694,15 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -722,13 +722,13 @@
         <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -790,13 +790,13 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -807,10 +807,10 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -912,13 +912,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -969,15 +969,15 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1017,21 +1017,21 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1079,10 +1079,10 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1130,13 +1130,13 @@
         <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -1161,10 +1161,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -1218,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1246,13 +1246,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1320,10 +1320,10 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -1331,13 +1331,13 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1365,10 +1365,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -1399,10 +1399,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1484,10 +1484,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -1504,13 +1504,13 @@
         <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -1535,10 +1535,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -1552,10 +1552,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -1572,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
@@ -1592,13 +1592,13 @@
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1606,10 +1606,10 @@
         <v>0</v>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -1620,10 +1620,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -1674,10 +1674,10 @@
         <v>0</v>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -1694,10 +1694,10 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -1739,13 +1739,13 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -1759,13 +1759,13 @@
         <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
@@ -1773,10 +1773,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -1833,15 +1833,15 @@
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
@@ -1878,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -1887,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -1901,10 +1901,10 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -1943,13 +1943,13 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -1960,10 +1960,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -1989,12 +1989,12 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2034,13 +2034,13 @@
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -2048,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -2091,15 +2091,15 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -2119,10 +2119,10 @@
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -2167,13 +2167,13 @@
         <v>0</v>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
@@ -2184,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -2215,10 +2215,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -2269,13 +2269,13 @@
         <v>0</v>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
@@ -2283,13 +2283,13 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
@@ -2300,10 +2300,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
@@ -2360,10 +2360,10 @@
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -2391,13 +2391,13 @@
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -2414,15 +2414,15 @@
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -2445,10 +2445,10 @@
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
@@ -2510,13 +2510,13 @@
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -2544,10 +2544,10 @@
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
@@ -2572,13 +2572,13 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
@@ -2606,13 +2606,13 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D133" t="n">
         <v>0</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2652,12 +2652,12 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -2669,12 +2669,12 @@
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
@@ -2691,10 +2691,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -2708,13 +2708,13 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -2745,10 +2745,10 @@
         <v>0</v>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
@@ -2762,10 +2762,10 @@
         <v>0</v>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B143" t="n">
         <v>0</v>
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
@@ -2799,18 +2799,18 @@
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B145" t="n">
         <v>0</v>
@@ -2822,18 +2822,18 @@
         <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B146" t="n">
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146" t="n">
         <v>0</v>
@@ -2844,10 +2844,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -2870,10 +2870,10 @@
         <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -2881,10 +2881,10 @@
         <v>0</v>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
@@ -2895,10 +2895,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -2921,10 +2921,860 @@
         <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>1</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>1</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>1</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>1</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>1</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>1</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>1</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>1</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>1</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>1</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2966,10 +3816,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -2977,10 +3827,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2994,10 +3844,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -3011,7 +3861,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -3023,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -3031,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -3045,13 +3895,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -3065,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -3079,7 +3929,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -3091,18 +3941,18 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -3133,10 +3983,10 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3147,13 +3997,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -3164,13 +4014,13 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -3181,10 +4031,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -3201,13 +4051,13 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -3218,13 +4068,13 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -3232,7 +4082,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -3244,12 +4094,12 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -3261,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -3269,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -3278,12 +4128,12 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -3292,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -3300,7 +4150,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -3312,18 +4162,18 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -3334,7 +4184,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -3343,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -3368,13 +4218,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -3388,7 +4238,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -3397,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -3405,10 +4255,10 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -3419,7 +4269,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -3428,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -3436,10 +4286,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -3456,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3465,12 +4315,12 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -3479,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3490,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3499,15 +4349,15 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3521,7 +4371,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -3533,15 +4383,15 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3558,13 +4408,13 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3575,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3584,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3595,18 +4445,18 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -3618,15 +4468,15 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3640,7 +4490,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -3652,12 +4502,12 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -3666,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3691,7 +4541,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
@@ -3700,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -3708,10 +4558,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -3725,10 +4575,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -3762,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -3779,10 +4629,10 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -3793,10 +4643,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -3847,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -3856,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -3878,7 +4728,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
@@ -3890,12 +4740,12 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -3907,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -3915,10 +4765,10 @@
         <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -3929,10 +4779,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -3955,10 +4805,10 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3969,10 +4819,10 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -3980,10 +4830,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -4014,7 +4864,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -4023,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -4048,7 +4898,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -4060,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -4068,10 +4918,10 @@
         <v>0</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -4082,10 +4932,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -4102,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -4111,12 +4961,12 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -4125,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -4133,7 +4983,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
@@ -4142,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -4150,10 +5000,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -4176,10 +5026,10 @@
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -4190,10 +5040,10 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -4204,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -4213,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -4238,13 +5088,13 @@
         <v>0</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -4258,13 +5108,13 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -4303,7 +5153,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
@@ -4315,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -4329,15 +5179,15 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B83" t="n">
         <v>0</v>
@@ -4349,15 +5199,15 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -4405,7 +5255,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
@@ -4414,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
@@ -4422,10 +5272,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -4442,10 +5292,10 @@
         <v>0</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -4473,10 +5323,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -4490,7 +5340,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -4499,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
@@ -4510,13 +5360,13 @@
         <v>0</v>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
@@ -4541,7 +5391,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -4553,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -4561,7 +5411,7 @@
         <v>0</v>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -4570,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -4581,10 +5431,10 @@
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -4598,13 +5448,13 @@
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -4612,10 +5462,10 @@
         <v>0</v>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -4626,10 +5476,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -4660,13 +5510,13 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -4680,10 +5530,10 @@
         <v>0</v>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -4697,10 +5547,10 @@
         <v>0</v>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -4751,21 +5601,21 @@
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -4779,10 +5629,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -4830,7 +5680,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -4842,12 +5692,12 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -4859,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -4867,13 +5717,13 @@
         <v>0</v>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
@@ -4898,10 +5748,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -4935,7 +5785,7 @@
         <v>0</v>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -4944,15 +5794,15 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -4969,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -4978,15 +5828,15 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -5000,13 +5850,13 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -5020,10 +5870,10 @@
         <v>0</v>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
@@ -5054,13 +5904,13 @@
         <v>0</v>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
@@ -5091,10 +5941,10 @@
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
@@ -5102,13 +5952,13 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -5119,13 +5969,13 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D129" t="n">
         <v>0</v>
@@ -5136,7 +5986,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -5148,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -5187,13 +6037,13 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D133" t="n">
         <v>0</v>
@@ -5204,13 +6054,13 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D134" t="n">
         <v>0</v>
@@ -5224,13 +6074,13 @@
         <v>0</v>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
@@ -5238,10 +6088,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -5258,10 +6108,10 @@
         <v>0</v>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
@@ -5275,10 +6125,10 @@
         <v>0</v>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
@@ -5289,10 +6139,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -5306,7 +6156,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -5318,18 +6168,18 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B141" t="n">
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
@@ -5340,7 +6190,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B142" t="n">
         <v>0</v>
@@ -5349,7 +6199,7 @@
         <v>0</v>
       </c>
       <c r="D142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
@@ -5377,10 +6227,10 @@
         <v>0</v>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
@@ -5394,10 +6244,10 @@
         <v>0</v>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D145" t="n">
         <v>0</v>
@@ -5417,10 +6267,10 @@
         <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -5428,13 +6278,13 @@
         <v>0</v>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
@@ -5448,10 +6298,10 @@
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
@@ -5496,16 +6346,866 @@
         <v>0</v>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>1</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>1</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>1</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>1</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>1</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>1</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>1</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>1</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>1</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>1</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5558,7 +7258,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -5570,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -5592,10 +7292,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -5612,13 +7312,13 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -5629,7 +7329,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -5638,18 +7338,18 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -5677,7 +7377,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -5689,7 +7389,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -5711,7 +7411,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -5720,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -5728,7 +7428,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -5737,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -5751,10 +7451,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -5765,10 +7465,10 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -5779,10 +7479,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -5805,10 +7505,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -5847,13 +7547,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -5864,10 +7564,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -5887,10 +7587,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -5986,7 +7686,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -5995,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -6009,10 +7709,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -6034,10 +7734,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -6057,10 +7757,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -6068,13 +7768,13 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -6094,21 +7794,21 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -6122,10 +7822,10 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -6136,7 +7836,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -6145,7 +7845,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -6156,13 +7856,13 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -6170,13 +7870,13 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -6187,7 +7887,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -6196,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -6213,10 +7913,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -6224,13 +7924,13 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -6238,10 +7938,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -6255,10 +7955,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -6275,10 +7975,10 @@
         <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -6292,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -6301,18 +8001,18 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -6323,13 +8023,13 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -6340,7 +8040,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
@@ -6349,7 +8049,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -6360,13 +8060,13 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -6408,10 +8108,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -6425,13 +8125,13 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -6445,10 +8145,10 @@
         <v>0</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -6462,7 +8162,7 @@
         <v>0</v>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -6471,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -6482,21 +8182,21 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -6527,7 +8227,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -6539,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -6547,7 +8247,7 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -6556,7 +8256,7 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -6578,13 +8278,13 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -6595,7 +8295,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -6604,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -6612,7 +8312,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -6624,15 +8324,15 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -6655,21 +8355,21 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -6683,7 +8383,7 @@
         <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -6692,15 +8392,15 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -6785,10 +8485,10 @@
         <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -6802,7 +8502,7 @@
         <v>0</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -6811,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -6836,10 +8536,10 @@
         <v>0</v>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -6853,10 +8553,10 @@
         <v>0</v>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -6890,21 +8590,21 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -6927,10 +8627,10 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -6938,13 +8638,13 @@
         <v>0</v>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
@@ -6955,10 +8655,10 @@
         <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -6969,10 +8669,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -6989,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -6998,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -7023,7 +8723,7 @@
         <v>0</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -7032,7 +8732,7 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -7040,7 +8740,7 @@
         <v>0</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -7049,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -7071,7 +8771,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -7083,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -7105,7 +8805,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -7117,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -7128,10 +8828,10 @@
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
@@ -7139,7 +8839,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -7148,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
@@ -7173,13 +8873,13 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -7190,10 +8890,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -7241,7 +8941,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -7253,18 +8953,18 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -7275,10 +8975,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -7298,13 +8998,13 @@
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -7315,13 +9015,13 @@
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -7360,10 +9060,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -7377,13 +9077,13 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
@@ -7394,7 +9094,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -7406,15 +9106,15 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -7431,13 +9131,13 @@
         <v>0</v>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
@@ -7462,7 +9162,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -7471,7 +9171,7 @@
         <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
@@ -7479,13 +9179,13 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
@@ -7496,10 +9196,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -7516,13 +9216,13 @@
         <v>0</v>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
@@ -7530,13 +9230,13 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -7587,10 +9287,10 @@
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
@@ -7601,10 +9301,10 @@
         <v>0</v>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
@@ -7666,7 +9366,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -7678,7 +9378,7 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -7686,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -7695,7 +9395,7 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -7709,21 +9409,21 @@
         <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -7751,10 +9451,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -7768,10 +9468,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -7802,10 +9502,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -7822,10 +9522,10 @@
         <v>0</v>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
@@ -7836,7 +9536,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -7848,12 +9548,12 @@
         <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -7865,7 +9565,7 @@
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -7890,13 +9590,13 @@
         <v>0</v>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
@@ -7907,7 +9607,7 @@
         <v>0</v>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -7916,7 +9616,7 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -7941,10 +9641,10 @@
         <v>0</v>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D143" t="n">
         <v>0</v>
@@ -7958,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
@@ -7975,7 +9675,7 @@
         <v>0</v>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -7984,7 +9684,7 @@
         <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -7992,10 +9692,10 @@
         <v>0</v>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D146" t="n">
         <v>0</v>
@@ -8006,10 +9706,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -8023,10 +9723,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -8040,13 +9740,13 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B149" t="n">
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
@@ -8086,6 +9786,856 @@
         <v>0</v>
       </c>
       <c r="E151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>1</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>1</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>1</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>1</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>1</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>1</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>1</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>1</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>1</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>1</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>1</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>1</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0</v>
+      </c>
+      <c r="E201" t="n">
         <v>0</v>
       </c>
     </row>
